--- a/Тамбов/Глава 2. Excel (Тамбов).xlsx
+++ b/Тамбов/Глава 2. Excel (Тамбов).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tambov/Documents/МАИ/Аэродинамика/6 семестр/Курсовая работа/AeroKursach/Тамбов. Наброски/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tambov/Documents/МАИ/Аэродинамика/6 семестр/Курсовая работа/AeroKursach/Тамбов/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB4AF76-DEDA-7948-A14B-65AD7D972FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CC1414-B48E-AB46-857D-465C37DD0C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{507D8B9C-88C0-8D47-895B-9C70E3C93069}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{507D8B9C-88C0-8D47-895B-9C70E3C93069}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>1,3</t>
   </si>
@@ -70,15 +70,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -159,11 +165,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,6 +285,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -213,8 +350,8 @@
       <xdr:rowOff>82740</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -256,6 +393,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -276,7 +414,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -340,8 +478,8 @@
       <xdr:rowOff>90345</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="684867" cy="401777"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -383,6 +521,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -502,7 +641,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -610,8 +749,8 @@
       <xdr:rowOff>75135</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="591379" cy="183384"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -653,6 +792,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -707,7 +847,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -796,8 +936,8 @@
       <xdr:rowOff>75136</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="416011" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -839,6 +979,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -885,7 +1026,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -956,8 +1097,8 @@
       <xdr:rowOff>219931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="559320" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -999,6 +1140,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1059,7 +1201,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -1154,8 +1296,8 @@
       <xdr:rowOff>68444</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249364" cy="191334"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -1197,6 +1339,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1251,7 +1394,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -1325,6 +1468,2234 @@
                 <a:t>𝛼</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215824</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33309</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="394595" cy="313099"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC8EAD1-27FE-EB37-C496-A18DD7720650}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9448040" y="1858459"/>
+              <a:ext cx="394595" cy="313099"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="2000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2.1</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC8EAD1-27FE-EB37-C496-A18DD7720650}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9448040" y="1858459"/>
+              <a:ext cx="394595" cy="313099"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2.1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>443967</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82740</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="155363" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252F1F0A-525B-F44C-86B3-20321E7B84A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1272889" y="288069"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252F1F0A-525B-F44C-86B3-20321E7B84A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1272889" y="288069"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139776</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="820417" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C75403-388C-2840-8AE2-973DB8DC530A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="968698" y="3284356"/>
+              <a:ext cx="820417" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>к</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="|"/>
+                            <m:endChr m:val="|"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSubSup>
+                              <m:sSubSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="ru-RU" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑀</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>∞</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSubSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C75403-388C-2840-8AE2-973DB8DC530A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="968698" y="3284356"/>
+              <a:ext cx="820417" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>к </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∞^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>| )</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="310918" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAB8788-4707-D74F-81CA-97815EE6C273}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8056362" y="2949747"/>
+              <a:ext cx="310918" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>к</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAB8788-4707-D74F-81CA-97815EE6C273}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8056362" y="2949747"/>
+              <a:ext cx="310918" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>к</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>383130</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101751</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="411651" cy="359970"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6D2E5B-8CB1-BC7F-7964-1B478E0235EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1212052" y="3820494"/>
+              <a:ext cx="411651" cy="359970"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦𝑎</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>ккр</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝛼</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜆</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>к</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6D2E5B-8CB1-BC7F-7964-1B478E0235EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1212052" y="3820494"/>
+              <a:ext cx="411651" cy="359970"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ккр^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼)/𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>к </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>375523</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78938</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="411651" cy="184731"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB6B99F-6D73-BB27-FAFF-F863FEAD8C7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1204445" y="4383249"/>
+              <a:ext cx="411651" cy="184731"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ккр</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB6B99F-6D73-BB27-FAFF-F863FEAD8C7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1204445" y="4383249"/>
+              <a:ext cx="411651" cy="184731"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ккр^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>481991</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="155363" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2379EB8-56CD-8047-89AF-3B6CB5C88C2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1310913" y="5177950"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2379EB8-56CD-8047-89AF-3B6CB5C88C2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1310913" y="5177950"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139776</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>59925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="820417" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03936CC8-E884-D246-B902-5A51A1BDA4A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="968698" y="3284356"/>
+              <a:ext cx="820417" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>к</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="|"/>
+                            <m:endChr m:val="|"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSubSup>
+                              <m:sSubSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="ru-RU" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑀</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>∞</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSubSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03936CC8-E884-D246-B902-5A51A1BDA4A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="968698" y="3284356"/>
+              <a:ext cx="820417" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>к </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∞^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>| )</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="310918" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7685A36D-FF7A-A644-B695-BA8BBC300EFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8056362" y="2949747"/>
+              <a:ext cx="310918" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>к</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7685A36D-FF7A-A644-B695-BA8BBC300EFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8056362" y="2949747"/>
+              <a:ext cx="310918" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>к</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>383130</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101751</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="399533" cy="358175"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE590269-95A1-C144-AC00-2F32A90619ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1212052" y="6033488"/>
+              <a:ext cx="399533" cy="358175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦𝑎</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>кго</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝛼</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜆</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>к</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE590269-95A1-C144-AC00-2F32A90619ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1212052" y="6033488"/>
+              <a:ext cx="399533" cy="358175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>кго^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼)/𝜆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>к </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>360314</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116962</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="399533" cy="182935"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1FA73C-8EF9-4B4C-B822-A5128A6C0722}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1189236" y="6619058"/>
+              <a:ext cx="399533" cy="182935"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>кго</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1FA73C-8EF9-4B4C-B822-A5128A6C0722}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1189236" y="6619058"/>
+              <a:ext cx="399533" cy="182935"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>кго^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="394595" cy="313099"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="TextBox 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD6FD40-6CA4-7249-9F44-F4396FCF84AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9499600" y="7030720"/>
+              <a:ext cx="394595" cy="313099"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="2000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="2000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="TextBox 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD6FD40-6CA4-7249-9F44-F4396FCF84AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9499600" y="7030720"/>
+              <a:ext cx="394595" cy="313099"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="2000"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1632,20 +4003,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7198E69-7FB2-674D-9622-2EA6BECDD97C}">
-  <dimension ref="B2:K5"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>0.2</v>
@@ -1665,12 +4051,15 @@
       <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="I2" s="12"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
         <v>2.1349999999999998</v>
       </c>
+      <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <f>SQRT(ABS(POWER(C2, 2)-1))/$K$2</f>
@@ -1696,12 +4085,15 @@
         <f t="shared" si="0"/>
         <v>0.70101309354078545</v>
       </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>-3.8999999999999998E-3</v>
       </c>
+      <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="2:11" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
         <v>4.7E-2</v>
@@ -1721,8 +4113,13 @@
       <c r="H4" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="2:11" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6">
         <f>C4+$K$3</f>
@@ -1748,6 +4145,345 @@
         <f t="shared" si="1"/>
         <v>4.9099999999999998E-2</v>
       </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>3.5139999999999998</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <f>$K$11*SQRT(ABS(POWER(C11, 2)-1))</f>
+        <v>3.443002782456035</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:H12" si="2">$K$11*SQRT(ABS(POWER(D11, 2)-1))</f>
+        <v>3.220634198414964</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1083999999999996</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9189476254294116</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>4.3889845932743947</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2592736228494523</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6">
+        <f>C13*$K$11</f>
+        <v>5.7980999999999998E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:H14" si="3">D13*$K$11</f>
+        <v>5.9737999999999999E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="3"/>
+        <v>7.2037000000000004E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="3"/>
+        <v>6.1495000000000001E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="3"/>
+        <v>4.9195999999999997E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="3"/>
+        <v>4.3924999999999999E-2</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <f>$K$17*SQRT(ABS(POWER(C17, 2)-1))</f>
+        <v>1.5657138435870075</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:H18" si="4">$K$17*SQRT(ABS(POWER(D17, 2)-1))</f>
+        <v>1.4645911921078865</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.95879999999999987</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3273984932943086</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9959013602881286</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3916674016259036</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.35E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6">
+        <f>C19*$K$11</f>
+        <v>8.7849999999999998E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20" si="5">D19*$K$11</f>
+        <v>9.3120999999999995E-2</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" ref="E20" si="6">E19*$K$11</f>
+        <v>0.101906</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20" si="7">F19*$K$11</f>
+        <v>9.487799999999999E-2</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" ref="G20" si="8">G19*$K$11</f>
+        <v>8.2579E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" ref="H20" si="9">H19*$K$11</f>
+        <v>7.3793999999999998E-2</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Тамбов/Глава 2. Excel (Тамбов).xlsx
+++ b/Тамбов/Глава 2. Excel (Тамбов).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tambov/Documents/МАИ/Аэродинамика/6 семестр/Курсовая работа/AeroKursach/Тамбов/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CC1414-B48E-AB46-857D-465C37DD0C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2070BA4-6484-A14C-97E0-5C58DB90F0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{507D8B9C-88C0-8D47-895B-9C70E3C93069}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="3">
   <si>
     <t>1,3</t>
   </si>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,6 +321,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1483,8 +1486,8 @@
       <xdr:rowOff>33309</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394595" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1526,6 +1529,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1546,7 +1550,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1610,8 +1614,8 @@
       <xdr:rowOff>82740</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1674,7 +1678,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1739,8 +1743,8 @@
       <xdr:rowOff>59925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="820417" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -1889,7 +1893,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -1998,8 +2002,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="310918" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -2089,7 +2093,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -2168,8 +2172,8 @@
       <xdr:rowOff>101751</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="411651" cy="359970"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2211,6 +2215,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2304,7 +2309,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2405,8 +2410,8 @@
       <xdr:rowOff>78938</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="411651" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2448,6 +2453,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2502,7 +2508,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2591,8 +2597,8 @@
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -2655,7 +2661,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -2720,8 +2726,8 @@
       <xdr:rowOff>59925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="820417" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -2870,7 +2876,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -2979,8 +2985,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="310918" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -3070,7 +3076,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -3149,8 +3155,8 @@
       <xdr:rowOff>101751</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="399533" cy="358175"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -3192,6 +3198,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3285,7 +3292,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -3386,8 +3393,8 @@
       <xdr:rowOff>116962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="399533" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -3429,6 +3436,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3483,7 +3491,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -3572,8 +3580,8 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394595" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -3615,6 +3623,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3641,7 +3650,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -3694,6 +3703,5593 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>481991</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>97950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="155363" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="TextBox 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3884D39-61E6-FD46-99D0-F63381BD62FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1304951" y="5198270"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="TextBox 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3884D39-61E6-FD46-99D0-F63381BD62FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1304951" y="5198270"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410709</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="249748" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFF0FCC-483B-1643-8FCC-E2F261D70A90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8501192"/>
+              <a:ext cx="249748" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFF0FCC-483B-1643-8FCC-E2F261D70A90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8501192"/>
+              <a:ext cx="249748" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="313612" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70993D06-5FBE-F346-B7DA-CEA3706FFDBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8116746"/>
+              <a:ext cx="313612" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70993D06-5FBE-F346-B7DA-CEA3706FFDBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8116746"/>
+              <a:ext cx="313612" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="345929" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="TextBox 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9B8C23-33E6-D147-97C4-C6D14421FC51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8472346"/>
+              <a:ext cx="345929" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜈</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∞</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="TextBox 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9B8C23-33E6-D147-97C4-C6D14421FC51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8472346"/>
+              <a:ext cx="345929" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜈_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414865</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71968</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258532" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EA7FF4-E7D8-33AA-B337-4E8A4BD20330}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8094132" y="8877301"/>
+              <a:ext cx="258532" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EA7FF4-E7D8-33AA-B337-4E8A4BD20330}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8094132" y="8877301"/>
+              <a:ext cx="258532" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="171585" cy="180049"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C793ED06-5FB0-5F2B-060A-294BC0C53C71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1286933" y="8877300"/>
+              <a:ext cx="171585" cy="180049"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝛿</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C793ED06-5FB0-5F2B-060A-294BC0C53C71}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1286933" y="8877300"/>
+              <a:ext cx="171585" cy="180049"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛿^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ) ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366194</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>73412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334579" cy="184794"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="TextBox 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BA0137-4AD5-0A4F-BA26-3CA04232BD2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8045461" y="9225879"/>
+              <a:ext cx="334579" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ф</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="TextBox 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BA0137-4AD5-0A4F-BA26-3CA04232BD2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8045461" y="9225879"/>
+              <a:ext cx="334579" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298461</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>81879</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="430887" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="TextBox 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390A5E8F-2AE3-6E48-8C09-FED2BEA17AD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7977728" y="9581479"/>
+              <a:ext cx="430887" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜂</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>кнп</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="TextBox 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390A5E8F-2AE3-6E48-8C09-FED2BEA17AD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7977728" y="9581479"/>
+              <a:ext cx="430887" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>кнп</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="219355" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EC6507-6C04-BAE8-41A4-6B25BDE17FD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1269999" y="9232900"/>
+              <a:ext cx="219355" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>пс</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EC6507-6C04-BAE8-41A4-6B25BDE17FD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1269999" y="9232900"/>
+              <a:ext cx="219355" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_пс</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372532</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334579" cy="192168"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4C105D-F3CB-5B9D-46A8-3D09AC7EABD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8051799" y="9935633"/>
+              <a:ext cx="334579" cy="192168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>ф</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4C105D-F3CB-5B9D-46A8-3D09AC7EABD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8051799" y="9935633"/>
+              <a:ext cx="334579" cy="192168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_ф ) ̅=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>481991</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>97950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="155363" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="TextBox 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D20016-ED7D-114E-9796-188A67FCEDD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="8124350"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="TextBox 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D20016-ED7D-114E-9796-188A67FCEDD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="8124350"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410709</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="249748" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E3B3DE-E651-0F4C-88C7-C0143A3516C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8501192"/>
+              <a:ext cx="249748" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E3B3DE-E651-0F4C-88C7-C0143A3516C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8501192"/>
+              <a:ext cx="249748" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="313612" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="TextBox 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1D6269-E2AF-3540-9392-3E741A9F8A23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8116746"/>
+              <a:ext cx="313612" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="TextBox 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1D6269-E2AF-3540-9392-3E741A9F8A23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8116746"/>
+              <a:ext cx="313612" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="345929" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="TextBox 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2527D8-612D-5843-A7CF-C6AADEF6B780}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8472346"/>
+              <a:ext cx="345929" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜈</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∞</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="TextBox 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2527D8-612D-5843-A7CF-C6AADEF6B780}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8472346"/>
+              <a:ext cx="345929" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜈_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414865</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71968</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258532" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="TextBox 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11705A83-EC96-5C4D-9012-FE11DDD7DFF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8094132" y="8877301"/>
+              <a:ext cx="258532" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="TextBox 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11705A83-EC96-5C4D-9012-FE11DDD7DFF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8094132" y="8877301"/>
+              <a:ext cx="258532" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="171585" cy="180049"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="TextBox 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EF42B2-F690-3842-B77A-159F03FA3E04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1286933" y="8877300"/>
+              <a:ext cx="171585" cy="180049"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝛿</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="TextBox 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EF42B2-F690-3842-B77A-159F03FA3E04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1286933" y="8877300"/>
+              <a:ext cx="171585" cy="180049"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛿^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ) ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366194</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>73412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334579" cy="184794"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="TextBox 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9199F0FB-BA84-704A-9D4D-42F4B4FC19A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8045461" y="9225879"/>
+              <a:ext cx="334579" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ф</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="TextBox 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9199F0FB-BA84-704A-9D4D-42F4B4FC19A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8045461" y="9225879"/>
+              <a:ext cx="334579" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298461</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>81879</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="430887" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="TextBox 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32AF40C-165E-A448-A316-66F09B4A5CA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7977728" y="9581479"/>
+              <a:ext cx="430887" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜂</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>кнп</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="TextBox 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32AF40C-165E-A448-A316-66F09B4A5CA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7977728" y="9581479"/>
+              <a:ext cx="430887" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>кнп</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="219355" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="TextBox 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503F344B-2C38-1940-BFDF-D40BEBE92834}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1269999" y="9232900"/>
+              <a:ext cx="219355" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>пс</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="TextBox 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503F344B-2C38-1940-BFDF-D40BEBE92834}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1269999" y="9232900"/>
+              <a:ext cx="219355" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_пс</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372532</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334579" cy="192168"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B21346-4036-184F-980A-77738DDED34F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8051799" y="9935633"/>
+              <a:ext cx="334579" cy="192168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>ф</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B21346-4036-184F-980A-77738DDED34F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8051799" y="9935633"/>
+              <a:ext cx="334579" cy="192168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_ф ) ̅=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>481991</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>97950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="155363" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="TextBox 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076D2D90-D5AC-9C4A-BF68-385F56A17390}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="8124350"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="TextBox 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076D2D90-D5AC-9C4A-BF68-385F56A17390}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="8124350"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410709</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>119192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196528" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="TextBox 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F0EA47-D7EC-0343-87AB-0F68D99D12E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="13674325"/>
+              <a:ext cx="196528" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="TextBox 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F0EA47-D7EC-0343-87AB-0F68D99D12E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="13674325"/>
+              <a:ext cx="196528" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414866</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180626" cy="184602"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="TextBox 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22EC4790-158A-A641-B275-B9898C245905}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1244599" y="14422966"/>
+              <a:ext cx="180626" cy="184602"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜂</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="TextBox 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22EC4790-158A-A641-B275-B9898C245905}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1244599" y="14422966"/>
+              <a:ext cx="180626" cy="184602"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>351442</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="280590" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="TextBox 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DECDB3-7607-8F45-8F98-8FC1EACCCA5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1181175" y="14063792"/>
+              <a:ext cx="280590" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∆</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="TextBox 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DECDB3-7607-8F45-8F98-8FC1EACCCA5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1181175" y="14063792"/>
+              <a:ext cx="280590" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="219355" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="TextBox 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0960F2F4-8791-764E-996B-5D4F4F96F9B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1236133" y="14782800"/>
+              <a:ext cx="219355" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>пс</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="TextBox 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0960F2F4-8791-764E-996B-5D4F4F96F9B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1236133" y="14782800"/>
+              <a:ext cx="219355" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_пс</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="174600" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="TextBox 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D00A8F-3777-7844-BDEB-C87670255BB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1227666" y="15129933"/>
+              <a:ext cx="174600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="TextBox 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D00A8F-3777-7844-BDEB-C87670255BB7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1227666" y="15129933"/>
+              <a:ext cx="174600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304801" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="TextBox 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743348C4-26A2-B647-9391-21D35435AF82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1176866" y="15460135"/>
+              <a:ext cx="304801" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼𝛼</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="TextBox 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743348C4-26A2-B647-9391-21D35435AF82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1176866" y="15460135"/>
+              <a:ext cx="304801" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>481991</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>97950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="155363" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="TextBox 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E9222F-B2E2-F341-8BB0-BB4E578D78E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="13305950"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="TextBox 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E9222F-B2E2-F341-8BB0-BB4E578D78E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="13305950"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410709</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="196528" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="TextBox 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC326BE-7489-B74F-B9E8-0822B86D26ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="13674325"/>
+              <a:ext cx="196528" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="TextBox 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC326BE-7489-B74F-B9E8-0822B86D26ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="13674325"/>
+              <a:ext cx="196528" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414866</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180626" cy="184602"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="TextBox 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7E223E-AACD-DF4A-B081-ED7BDF5D8AD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1244599" y="14422966"/>
+              <a:ext cx="180626" cy="184602"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜂</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="TextBox 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7E223E-AACD-DF4A-B081-ED7BDF5D8AD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1244599" y="14422966"/>
+              <a:ext cx="180626" cy="184602"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜂</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>351442</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="280590" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="TextBox 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B390E2-D220-E049-9914-7ED2517272BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1181175" y="14063792"/>
+              <a:ext cx="280590" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∆</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="TextBox 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B390E2-D220-E049-9914-7ED2517272BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1181175" y="14063792"/>
+              <a:ext cx="280590" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="219355" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="TextBox 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1F8E20-4F6F-DA48-81D7-D6B35732B46B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1236133" y="14782800"/>
+              <a:ext cx="219355" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>пс</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="TextBox 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1F8E20-4F6F-DA48-81D7-D6B35732B46B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1236133" y="14782800"/>
+              <a:ext cx="219355" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_пс</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="174600" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="TextBox 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E44E487-B7F7-7B4B-8529-82E997D033EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1227666" y="15129933"/>
+              <a:ext cx="174600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="TextBox 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E44E487-B7F7-7B4B-8529-82E997D033EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1227666" y="15129933"/>
+              <a:ext cx="174600" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304801" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="TextBox 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2584F2F-74F8-184D-B589-E7F97C0422BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1176866" y="15460135"/>
+              <a:ext cx="304801" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼𝛼</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="TextBox 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2584F2F-74F8-184D-B589-E7F97C0422BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1176866" y="15460135"/>
+              <a:ext cx="304801" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>54187</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="394595" cy="313099"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="TextBox 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194A7283-D097-CC4E-A830-BFF757D5A3DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9558867" y="18824787"/>
+              <a:ext cx="394595" cy="313099"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="2000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2.3</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="TextBox 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194A7283-D097-CC4E-A830-BFF757D5A3DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9558867" y="18824787"/>
+              <a:ext cx="394595" cy="313099"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2.3</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="2000"/>
             </a:p>
@@ -4003,10 +9599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7198E69-7FB2-674D-9622-2EA6BECDD97C}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4485,6 +10081,833 @@
       <c r="K22" s="15"/>
       <c r="L22" s="18"/>
     </row>
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
+        <f>(C26*$K$28*$K$26)/$K$27</f>
+        <v>2355979.1136463359</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:G27" si="10">(D26*$K$28*$K$26)/$K$27</f>
+        <v>4711958.2272926718</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="10"/>
+        <v>9423916.4545853436</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="10"/>
+        <v>15313864.238701185</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="10"/>
+        <v>18847832.909170687</v>
+      </c>
+      <c r="H27" s="2">
+        <f>(H26*$K$28*$K$26)/$K$27</f>
+        <v>21203812.022817027</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>2.2790000000000001E-4</v>
+      </c>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
+        <f>(0.093/POWER(C27,0.2))*($K$26/$K$29)*(1+0.4*C26+0.147*POWER(C26,2)-0.006*POWER(C26,3))</f>
+        <v>2.3960224941866035E-2</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28:H28" si="11">(0.093/POWER(D27,0.2))*($K$26/$K$29)*(1+0.4*D26+0.147*POWER(D26,2)-0.006*POWER(D26,3))</f>
+        <v>2.2727775168948919E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="11"/>
+        <v>2.3596399064662203E-2</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="11"/>
+        <v>2.663692390865827E-2</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="11"/>
+        <v>2.8996379475699816E-2</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="11"/>
+        <v>3.0732111121619575E-2</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>313.26</v>
+      </c>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6">
+        <f>1-$K$31*POWER((1+$K$31),2)*($K$31+$K$30*(1+$K$30)-1)*(C28/(1+POWER($K$30,2)))</f>
+        <v>0.99247534131941617</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" ref="D29:H29" si="12">1-$K$31*POWER((1+$K$31),2)*($K$31+$K$30*(1+$K$30)-1)*(D28/(1+POWER($K$30,2)))</f>
+        <v>0.9928623896006683</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="12"/>
+        <v>0.99258960007749397</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="12"/>
+        <v>0.99163472959040899</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="12"/>
+        <v>0.99089374748957026</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="12"/>
+        <v>0.99034864458555649</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="20">
+        <v>1.92</v>
+      </c>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="20">
+        <v>3.02</v>
+      </c>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>15.65</v>
+      </c>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
+        <f>(C34*$K$36*$K$34)/$K$35</f>
+        <v>4302342.2553751646</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ref="D35:H35" si="13">(D34*$K$36*$K$34)/$K$35</f>
+        <v>8604684.5107503291</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="13"/>
+        <v>17209369.021500658</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="13"/>
+        <v>27965224.659938566</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="13"/>
+        <v>34418738.043001316</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="13"/>
+        <v>38721080.298376486</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
+        <v>2.2790000000000001E-4</v>
+      </c>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4">
+        <f>(0.093/POWER(C35,0.2))*($K$34/$K$37)*(1+0.4*C34+0.147*POWER(C34,2)-0.006*POWER(C34,3))</f>
+        <v>5.1936153806574438E-2</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" ref="D36:H36" si="14">(0.093/POWER(D35,0.2))*($K$34/$K$37)*(1+0.4*D34+0.147*POWER(D34,2)-0.006*POWER(D34,3))</f>
+        <v>4.9264697210469707E-2</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="14"/>
+        <v>5.1147525287304818E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="14"/>
+        <v>5.7738163160431268E-2</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="14"/>
+        <v>6.2852516115253915E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="14"/>
+        <v>6.6614885873807844E-2</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <v>313.26</v>
+      </c>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6">
+        <f>1-$K$39*POWER((1+$K$39),2)*($K$39+$K$38*(1+$K$38)-1)*(C36/(1+POWER($K$38,2)))</f>
+        <v>0.9725822382182745</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" ref="D37:H37" si="15">1-$K$39*POWER((1+$K$39),2)*($K$39+$K$38*(1+$K$38)-1)*(D36/(1+POWER($K$38,2)))</f>
+        <v>0.97399253442224454</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="15"/>
+        <v>0.97299856532936813</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="15"/>
+        <v>0.96951928305775481</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="15"/>
+        <v>0.96681935053088286</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="15"/>
+        <v>0.9648331472752667</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="20">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="20">
+        <v>12.85</v>
+      </c>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2">
+        <v>0.99247534131941617</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.9928623896006683</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.99258960007749397</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.99163472959040899</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.99089374748957026</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.99034864458555649</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6">
+        <f>(C43+C44)*C45*C46*C47</f>
+        <v>2.9781894359907914</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:H48" si="16">(D43+D44)*D45*D46*D47</f>
+        <v>2.9793508785520859</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="16"/>
+        <v>2.9785323001528612</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="16"/>
+        <v>2.9756669542052276</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="16"/>
+        <v>2.9734434379392796</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="16"/>
+        <v>2.9718077099340845</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="G54" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="H54" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2">
+        <v>0.9725822382182745</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.97399253442224454</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.97299856532936813</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.96951928305775481</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.96681935053088286</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.9648331472752667</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6">
+        <f>(C52+C53)*C54*C55*C56</f>
+        <v>5.7567064873560607</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" ref="D57" si="17">(D52+D53)*D54*D55*D56</f>
+        <v>5.7650540193049897</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" ref="E57" si="18">(E52+E53)*E54*E55*E56</f>
+        <v>5.7591707241960073</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" ref="F57" si="19">(F52+F53)*F54*F55*F56</f>
+        <v>5.7385768802645867</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" ref="G57" si="20">(G52+G53)*G54*G55*G56</f>
+        <v>5.7225960012374912</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" ref="H57" si="21">(H52+H53)*H54*H55*H56</f>
+        <v>5.7108396800571253</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Тамбов/Глава 2. Excel (Тамбов).xlsx
+++ b/Тамбов/Глава 2. Excel (Тамбов).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tambov/Documents/МАИ/Аэродинамика/6 семестр/Курсовая работа/AeroKursach/Тамбов/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2070BA4-6484-A14C-97E0-5C58DB90F0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482D7D7F-7C7B-8844-97FE-812B9475CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{507D8B9C-88C0-8D47-895B-9C70E3C93069}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
   <si>
     <t>1,3</t>
   </si>
@@ -84,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -260,11 +260,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +337,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3716,7 +3735,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>481991</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
@@ -3735,7 +3754,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1304951" y="5198270"/>
+              <a:off x="1311724" y="15566550"/>
               <a:ext cx="155363" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3798,7 +3817,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1304951" y="5198270"/>
+              <a:off x="1311724" y="15566550"/>
               <a:ext cx="155363" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3845,7 +3864,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410709</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249748" cy="172227"/>
@@ -3864,7 +3883,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1240442" y="8501192"/>
+              <a:off x="1240442" y="15943392"/>
               <a:ext cx="249748" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3947,7 +3966,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1240442" y="8501192"/>
+              <a:off x="1240442" y="15943392"/>
               <a:ext cx="249748" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4013,7 +4032,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>383128</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313612" cy="172227"/>
@@ -4032,7 +4051,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8062395" y="8116746"/>
+              <a:off x="8367195" y="15558946"/>
               <a:ext cx="313612" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4121,7 +4140,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8062395" y="8116746"/>
+              <a:off x="8367195" y="15558946"/>
               <a:ext cx="313612" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4187,7 +4206,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>383128</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="345929" cy="172227"/>
@@ -4206,7 +4225,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8062395" y="8472346"/>
+              <a:off x="8367195" y="15914546"/>
               <a:ext cx="345929" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4296,7 +4315,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8062395" y="8472346"/>
+              <a:off x="8367195" y="15914546"/>
               <a:ext cx="345929" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4357,7 +4376,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>414865</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>71968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258532" cy="172227"/>
@@ -4376,7 +4395,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8094132" y="8877301"/>
+              <a:off x="8398932" y="16319501"/>
               <a:ext cx="258532" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4444,7 +4463,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8094132" y="8877301"/>
+              <a:off x="8398932" y="16319501"/>
               <a:ext cx="258532" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4490,7 +4509,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>71967</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="171585" cy="180049"/>
@@ -4509,7 +4528,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1286933" y="8877300"/>
+              <a:off x="1286933" y="16319500"/>
               <a:ext cx="171585" cy="180049"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4603,7 +4622,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1286933" y="8877300"/>
+              <a:off x="1286933" y="16319500"/>
               <a:ext cx="171585" cy="180049"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4668,7 +4687,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>366194</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>73412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="184794"/>
@@ -4687,7 +4706,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8045461" y="9225879"/>
+              <a:off x="8350261" y="16668079"/>
               <a:ext cx="334579" cy="184794"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4776,7 +4795,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8045461" y="9225879"/>
+              <a:off x="8350261" y="16668079"/>
               <a:ext cx="334579" cy="184794"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4842,7 +4861,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>298461</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>81879</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="430887" cy="172227"/>
@@ -4861,7 +4880,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7977728" y="9581479"/>
+              <a:off x="8282528" y="17023679"/>
               <a:ext cx="430887" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4951,7 +4970,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7977728" y="9581479"/>
+              <a:off x="8282528" y="17023679"/>
               <a:ext cx="430887" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5012,7 +5031,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>440266</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219355" cy="172227"/>
@@ -5031,7 +5050,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1269999" y="9232900"/>
+              <a:off x="1269999" y="16675100"/>
               <a:ext cx="219355" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5112,7 +5131,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1269999" y="9232900"/>
+              <a:off x="1269999" y="16675100"/>
               <a:ext cx="219355" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5164,7 +5183,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>372532</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="192168"/>
@@ -5183,7 +5202,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8051799" y="9935633"/>
+              <a:off x="8356599" y="17377833"/>
               <a:ext cx="334579" cy="192168"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5282,7 +5301,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8051799" y="9935633"/>
+              <a:off x="8356599" y="17377833"/>
               <a:ext cx="334579" cy="192168"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5340,7 +5359,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>481991</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
@@ -5359,7 +5378,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1311724" y="8124350"/>
+              <a:off x="1311724" y="18174283"/>
               <a:ext cx="155363" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5422,7 +5441,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1311724" y="8124350"/>
+              <a:off x="1311724" y="18174283"/>
               <a:ext cx="155363" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5469,7 +5488,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410709</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249748" cy="172227"/>
@@ -5488,7 +5507,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1240442" y="8501192"/>
+              <a:off x="1240442" y="18551125"/>
               <a:ext cx="249748" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5571,7 +5590,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1240442" y="8501192"/>
+              <a:off x="1240442" y="18551125"/>
               <a:ext cx="249748" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5637,7 +5656,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>383128</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313612" cy="172227"/>
@@ -5656,7 +5675,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8062395" y="8116746"/>
+              <a:off x="8367195" y="18166679"/>
               <a:ext cx="313612" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5745,7 +5764,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8062395" y="8116746"/>
+              <a:off x="8367195" y="18166679"/>
               <a:ext cx="313612" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5811,7 +5830,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>383128</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="345929" cy="172227"/>
@@ -5830,7 +5849,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8062395" y="8472346"/>
+              <a:off x="8367195" y="18522279"/>
               <a:ext cx="345929" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5920,7 +5939,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8062395" y="8472346"/>
+              <a:off x="8367195" y="18522279"/>
               <a:ext cx="345929" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5981,7 +6000,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>414865</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>71968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258532" cy="172227"/>
@@ -6000,7 +6019,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8094132" y="8877301"/>
+              <a:off x="8398932" y="18884901"/>
               <a:ext cx="258532" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6068,7 +6087,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8094132" y="8877301"/>
+              <a:off x="8398932" y="18884901"/>
               <a:ext cx="258532" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6114,7 +6133,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>71967</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="171585" cy="180049"/>
@@ -6133,7 +6152,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1286933" y="8877300"/>
+              <a:off x="1286933" y="18884900"/>
               <a:ext cx="171585" cy="180049"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6227,7 +6246,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1286933" y="8877300"/>
+              <a:off x="1286933" y="18884900"/>
               <a:ext cx="171585" cy="180049"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6292,7 +6311,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>366194</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>73412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="184794"/>
@@ -6311,7 +6330,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8045461" y="9225879"/>
+              <a:off x="8350261" y="19233479"/>
               <a:ext cx="334579" cy="184794"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6400,7 +6419,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8045461" y="9225879"/>
+              <a:off x="8350261" y="19233479"/>
               <a:ext cx="334579" cy="184794"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6466,7 +6485,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>298461</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>81879</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="430887" cy="172227"/>
@@ -6485,7 +6504,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7977728" y="9581479"/>
+              <a:off x="8282528" y="19597546"/>
               <a:ext cx="430887" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6575,7 +6594,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7977728" y="9581479"/>
+              <a:off x="8282528" y="19597546"/>
               <a:ext cx="430887" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6636,7 +6655,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>440266</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219355" cy="172227"/>
@@ -6655,7 +6674,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1269999" y="9232900"/>
+              <a:off x="1269999" y="19240500"/>
               <a:ext cx="219355" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6736,7 +6755,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1269999" y="9232900"/>
+              <a:off x="1269999" y="19240500"/>
               <a:ext cx="219355" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6788,7 +6807,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>372532</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="192168"/>
@@ -6807,7 +6826,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8051799" y="9935633"/>
+              <a:off x="8356599" y="19951700"/>
               <a:ext cx="334579" cy="192168"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6906,7 +6925,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8051799" y="9935633"/>
+              <a:off x="8356599" y="19951700"/>
               <a:ext cx="334579" cy="192168"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6964,7 +6983,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>481991</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
@@ -6983,7 +7002,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1311724" y="8124350"/>
+              <a:off x="1311724" y="20748150"/>
               <a:ext cx="155363" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7046,7 +7065,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1311724" y="8124350"/>
+              <a:off x="1311724" y="20748150"/>
               <a:ext cx="155363" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7093,7 +7112,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410709</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196528" cy="172227"/>
@@ -7112,7 +7131,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1240442" y="13674325"/>
+              <a:off x="1240442" y="21116525"/>
               <a:ext cx="196528" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7195,7 +7214,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1240442" y="13674325"/>
+              <a:off x="1240442" y="21116525"/>
               <a:ext cx="196528" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7255,7 +7274,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>414866</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180626" cy="184602"/>
@@ -7274,7 +7293,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1244599" y="14422966"/>
+              <a:off x="1244599" y="21865166"/>
               <a:ext cx="180626" cy="184602"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7356,7 +7375,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1244599" y="14422966"/>
+              <a:off x="1244599" y="21865166"/>
               <a:ext cx="180626" cy="184602"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7415,7 +7434,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>351442</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>85325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="280590" cy="172227"/>
@@ -7434,7 +7453,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1181175" y="14063792"/>
+              <a:off x="1181175" y="21505992"/>
               <a:ext cx="280590" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7524,7 +7543,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1181175" y="14063792"/>
+              <a:off x="1181175" y="21505992"/>
               <a:ext cx="280590" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7597,7 +7616,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219355" cy="172227"/>
@@ -7616,7 +7635,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1236133" y="14782800"/>
+              <a:off x="1236133" y="22225000"/>
               <a:ext cx="219355" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7697,7 +7716,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1236133" y="14782800"/>
+              <a:off x="1236133" y="22225000"/>
               <a:ext cx="219355" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7749,7 +7768,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>397933</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="174600" cy="172227"/>
@@ -7768,7 +7787,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1227666" y="15129933"/>
+              <a:off x="1227666" y="22572133"/>
               <a:ext cx="174600" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7849,7 +7868,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1227666" y="15129933"/>
+              <a:off x="1227666" y="22572133"/>
               <a:ext cx="174600" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7907,7 +7926,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>347133</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304801" cy="172227"/>
@@ -7926,7 +7945,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1176866" y="15460135"/>
+              <a:off x="1176866" y="22902335"/>
               <a:ext cx="304801" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8009,7 +8028,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1176866" y="15460135"/>
+              <a:off x="1176866" y="22902335"/>
               <a:ext cx="304801" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8069,7 +8088,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>481991</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
@@ -8088,7 +8107,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1311724" y="13305950"/>
+              <a:off x="1311724" y="23677617"/>
               <a:ext cx="155363" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8151,7 +8170,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1311724" y="13305950"/>
+              <a:off x="1311724" y="23677617"/>
               <a:ext cx="155363" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8198,7 +8217,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410709</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196528" cy="172227"/>
@@ -8217,7 +8236,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1240442" y="13674325"/>
+              <a:off x="1240442" y="24071392"/>
               <a:ext cx="196528" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8300,7 +8319,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1240442" y="13674325"/>
+              <a:off x="1240442" y="24071392"/>
               <a:ext cx="196528" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8360,7 +8379,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>414866</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180626" cy="184602"/>
@@ -8379,7 +8398,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1244599" y="14422966"/>
+              <a:off x="1244599" y="24820032"/>
               <a:ext cx="180626" cy="184602"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8461,7 +8480,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1244599" y="14422966"/>
+              <a:off x="1244599" y="24820032"/>
               <a:ext cx="180626" cy="184602"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8520,7 +8539,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>351442</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>85325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="280590" cy="172227"/>
@@ -8539,7 +8558,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1181175" y="14063792"/>
+              <a:off x="1181175" y="24443925"/>
               <a:ext cx="280590" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8629,7 +8648,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1181175" y="14063792"/>
+              <a:off x="1181175" y="24443925"/>
               <a:ext cx="280590" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8702,7 +8721,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219355" cy="172227"/>
@@ -8721,7 +8740,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1236133" y="14782800"/>
+              <a:off x="1236133" y="25205267"/>
               <a:ext cx="219355" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8802,7 +8821,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1236133" y="14782800"/>
+              <a:off x="1236133" y="25205267"/>
               <a:ext cx="219355" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8854,7 +8873,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>397933</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="174600" cy="172227"/>
@@ -8873,7 +8892,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1227666" y="15129933"/>
+              <a:off x="1227666" y="25527000"/>
               <a:ext cx="174600" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8954,7 +8973,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1227666" y="15129933"/>
+              <a:off x="1227666" y="25527000"/>
               <a:ext cx="174600" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9012,7 +9031,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>347133</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304801" cy="172227"/>
@@ -9031,7 +9050,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1176866" y="15460135"/>
+              <a:off x="1176866" y="25891069"/>
               <a:ext cx="304801" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9114,7 +9133,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1176866" y="15460135"/>
+              <a:off x="1176866" y="25891069"/>
               <a:ext cx="304801" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9174,7 +9193,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>220134</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>54187</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394595" cy="313099"/>
@@ -9193,7 +9212,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9558867" y="18824787"/>
+              <a:off x="9863667" y="26250054"/>
               <a:ext cx="394595" cy="313099"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9256,7 +9275,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9558867" y="18824787"/>
+              <a:off x="9863667" y="26250054"/>
               <a:ext cx="394595" cy="313099"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9292,6 +9311,5828 @@
                 <a:t>2.3</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>481991</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>97950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="155363" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="TextBox 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C53BE2-901D-AE4D-A3D8-80759E10C167}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="9360483"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="TextBox 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C53BE2-901D-AE4D-A3D8-80759E10C167}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="9360483"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410709</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="373949" cy="188770"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="TextBox 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003521E3-808E-A549-801E-8BF682BD6DAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8518125"/>
+              <a:ext cx="373949" cy="188770"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑆</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>кнп ф</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="TextBox 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003521E3-808E-A549-801E-8BF682BD6DAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8518125"/>
+              <a:ext cx="373949" cy="188770"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>кнп ф)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309572" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="TextBox 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97908787-A247-6A4D-97FB-8230F0E0ED86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8116746"/>
+              <a:ext cx="309572" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>б</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="TextBox 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97908787-A247-6A4D-97FB-8230F0E0ED86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8062395" y="8116746"/>
+              <a:ext cx="309572" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>б</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332328</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364267" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="TextBox 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1897782F-7C8C-2742-BBDE-2BF124F887F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8011595" y="8497745"/>
+              <a:ext cx="364267" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>зк</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="TextBox 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1897782F-7C8C-2742-BBDE-2BF124F887F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8011595" y="8497745"/>
+              <a:ext cx="364267" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜒_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>зк</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289995</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98813</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="425309" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="TextBox 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7587F936-F114-B040-BC51-263656EBFD1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7969262" y="8878746"/>
+              <a:ext cx="425309" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>кнп</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="TextBox 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7587F936-F114-B040-BC51-263656EBFD1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7969262" y="8878746"/>
+              <a:ext cx="425309" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>кнп</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179929</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107280</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="576953" cy="179473"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="TextBox 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6717F06E-CEA0-F24F-83D9-0658FCDF059C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5369996" y="9242813"/>
+              <a:ext cx="576953" cy="179473"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>дозв</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="TextBox 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6717F06E-CEA0-F24F-83D9-0658FCDF059C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5369996" y="9242813"/>
+              <a:ext cx="576953" cy="179473"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>дозв)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410709</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="365678" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="TextBox 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839F9E91-D849-D64D-95E9-53B0C5699D26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8899125"/>
+              <a:ext cx="365678" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> свз</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="TextBox 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839F9E91-D849-D64D-95E9-53B0C5699D26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8899125"/>
+              <a:ext cx="365678" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼 свз)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323861</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175012</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="375487" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="TextBox 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6605F2-4482-FE44-9373-990EA303A46E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5818728" y="9810079"/>
+              <a:ext cx="375487" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>пк</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="TextBox 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6605F2-4482-FE44-9373-990EA303A46E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5818728" y="9810079"/>
+              <a:ext cx="375487" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜒_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>пк</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334579" cy="184794"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="TextBox 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC0FA00-20FA-9C40-8CA4-8C0AD87EF5F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5573195" y="9996346"/>
+              <a:ext cx="334579" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ф</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="TextBox 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC0FA00-20FA-9C40-8CA4-8C0AD87EF5F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5573195" y="9996346"/>
+              <a:ext cx="334579" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1136978" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="74" name="TextBox 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431CE5A4-5951-4C84-1D82-3D6EB5ECAFBD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="973666" y="9215967"/>
+              <a:ext cx="1136978" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑀</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∞</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ctd</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>пк</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="74" name="TextBox 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431CE5A4-5951-4C84-1D82-3D6EB5ECAFBD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="973666" y="9215967"/>
+              <a:ext cx="1136978" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∞^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗ctd⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜒_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>пк</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88897</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="884538" cy="421206"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="TextBox 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1D3850-E244-44EB-DE86-630EB743B4DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1049866" y="9723964"/>
+              <a:ext cx="884538" cy="421206"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>ф</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:sSubSup>
+                              <m:sSubSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="ru-RU" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑀</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>∞</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSubSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:rad>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑏</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>б</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="TextBox 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1D3850-E244-44EB-DE86-630EB743B4DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1049866" y="9723964"/>
+              <a:ext cx="884538" cy="421206"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∞^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>))/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_б </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>491067</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="449739" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="TextBox 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAFA06F-A617-8241-87D6-973BB5FD6190}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1320800" y="10320866"/>
+              <a:ext cx="449739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>свз</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="TextBox 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAFA06F-A617-8241-87D6-973BB5FD6190}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1320800" y="10320866"/>
+              <a:ext cx="449739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>свз)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>′</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334579" cy="192168"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="TextBox 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9755991-E6B7-D549-9093-D039D23AE7FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5877995" y="10682146"/>
+              <a:ext cx="334579" cy="192168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ф</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="TextBox 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9755991-E6B7-D549-9093-D039D23AE7FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5877995" y="10682146"/>
+              <a:ext cx="334579" cy="192168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>524934</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97366</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387350" cy="182935"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="TextBox 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B17BFD-7BC6-B585-F4D2-99D5590E408C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1354667" y="10689166"/>
+              <a:ext cx="387350" cy="182935"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>нп</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="TextBox 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B17BFD-7BC6-B585-F4D2-99D5590E408C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1354667" y="10689166"/>
+              <a:ext cx="387350" cy="182935"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦𝑎 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>нп)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="449739" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="TextBox 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99413A4A-E7C8-E944-A251-96A137AD9FA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1363133" y="11074400"/>
+              <a:ext cx="449739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> свз</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="TextBox 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99413A4A-E7C8-E944-A251-96A137AD9FA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1363133" y="11074400"/>
+              <a:ext cx="449739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼 свз)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>481991</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>97950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="155363" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="TextBox 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042383DB-32BD-3042-B1B5-81EC8808D020}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="8124350"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="TextBox 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042383DB-32BD-3042-B1B5-81EC8808D020}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1311724" y="8124350"/>
+              <a:ext cx="155363" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410709</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="373949" cy="188770"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="TextBox 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E59F00-E18B-ED4A-8F98-5C8A31FE9842}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8518125"/>
+              <a:ext cx="373949" cy="188770"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑆</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>кнп ф</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="TextBox 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E59F00-E18B-ED4A-8F98-5C8A31FE9842}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8518125"/>
+              <a:ext cx="373949" cy="188770"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>кнп ф)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309572" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="TextBox 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D159BB-B91B-804A-81A5-786AD19409AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5877995" y="8116746"/>
+              <a:ext cx="309572" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>б</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="TextBox 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D159BB-B91B-804A-81A5-786AD19409AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5877995" y="8116746"/>
+              <a:ext cx="309572" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>б</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332328</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>98812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364267" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="TextBox 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681D8F06-2008-514B-9300-245FF01599F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5827195" y="8497745"/>
+              <a:ext cx="364267" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>зк</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="TextBox 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681D8F06-2008-514B-9300-245FF01599F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5827195" y="8497745"/>
+              <a:ext cx="364267" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜒_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>зк</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289995</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>98813</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="425309" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="TextBox 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE948F7-69D4-1242-A1C8-87CAC363DD72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5784862" y="8878746"/>
+              <a:ext cx="425309" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>кнп</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="TextBox 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE948F7-69D4-1242-A1C8-87CAC363DD72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5784862" y="8878746"/>
+              <a:ext cx="425309" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>кнп</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179929</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>107280</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="576953" cy="179473"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="86" name="TextBox 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67D8B58-C10C-7448-A3B0-A87214A90728}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5674796" y="9285147"/>
+              <a:ext cx="576953" cy="179473"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>дозв</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="86" name="TextBox 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67D8B58-C10C-7448-A3B0-A87214A90728}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5674796" y="9285147"/>
+              <a:ext cx="576953" cy="179473"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>дозв)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410709</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="365678" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="87" name="TextBox 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB0E5B8-870A-174A-970A-BC83B625D530}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8899125"/>
+              <a:ext cx="365678" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> свз</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="87" name="TextBox 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB0E5B8-870A-174A-970A-BC83B625D530}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1240442" y="8899125"/>
+              <a:ext cx="365678" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼 свз)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323861</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175012</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="375487" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="88" name="TextBox 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E086D609-4962-7F43-BBCA-5E607E2B700A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5818728" y="9810079"/>
+              <a:ext cx="375487" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>пк</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="88" name="TextBox 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E086D609-4962-7F43-BBCA-5E607E2B700A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5818728" y="9810079"/>
+              <a:ext cx="375487" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜒_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>пк</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334579" cy="184794"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="89" name="TextBox 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9661A33C-AEA6-3441-972F-EEFBD4465C22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5877995" y="10309613"/>
+              <a:ext cx="334579" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ф</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="89" name="TextBox 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9661A33C-AEA6-3441-972F-EEFBD4465C22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5877995" y="10309613"/>
+              <a:ext cx="334579" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1136978" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="90" name="TextBox 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF477202-09F0-DB4C-8C46-3042E7A10B56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="973666" y="9215967"/>
+              <a:ext cx="1136978" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑀</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∞</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ctd</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>пк</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="90" name="TextBox 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF477202-09F0-DB4C-8C46-3042E7A10B56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="973666" y="9215967"/>
+              <a:ext cx="1136978" cy="344453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∞^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗ctd⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜒_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>пк</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88897</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="884538" cy="421206"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="91" name="TextBox 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD77C34-ACE1-464E-ACB7-5A55EAC0A8AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1049866" y="9723964"/>
+              <a:ext cx="884538" cy="421206"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>ф</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:sSubSup>
+                              <m:sSubSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="ru-RU" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑀</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>∞</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSubSup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:rad>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑏</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>б</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="91" name="TextBox 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD77C34-ACE1-464E-ACB7-5A55EAC0A8AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1049866" y="9723964"/>
+              <a:ext cx="884538" cy="421206"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∞^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>))/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_б </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>491067</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="449739" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="92" name="TextBox 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB44B33B-D16E-F24B-A100-9DFF4B6479F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1320800" y="10320866"/>
+              <a:ext cx="449739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>свз</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="92" name="TextBox 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB44B33B-D16E-F24B-A100-9DFF4B6479F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1320800" y="10320866"/>
+              <a:ext cx="449739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>свз)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>′</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383128</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>90346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334579" cy="192168"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="TextBox 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399817FD-9939-C749-89FD-62C960229D15}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5877995" y="10682146"/>
+              <a:ext cx="334579" cy="192168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ф</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="TextBox 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399817FD-9939-C749-89FD-62C960229D15}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5877995" y="10682146"/>
+              <a:ext cx="334579" cy="192168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>524934</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>97366</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387350" cy="182935"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="94" name="TextBox 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E6ECC2-E882-5140-958D-899C69FE3DC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1354667" y="10689166"/>
+              <a:ext cx="387350" cy="182935"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦𝑎</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>нп</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="94" name="TextBox 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E6ECC2-E882-5140-958D-899C69FE3DC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1354667" y="10689166"/>
+              <a:ext cx="387350" cy="182935"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦𝑎 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>нп)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="449739" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95" name="TextBox 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F720FC55-0F40-CC4B-87AA-7C74B62561BD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1363133" y="11074400"/>
+              <a:ext cx="449739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> свз</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95" name="TextBox 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F720FC55-0F40-CC4B-87AA-7C74B62561BD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1363133" y="11074400"/>
+              <a:ext cx="449739" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼 свз)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -9599,16 +15440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7198E69-7FB2-674D-9622-2EA6BECDD97C}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="106" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -10096,188 +15937,187 @@
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>4.1980000000000004</v>
+      </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2">
-        <v>8.57</v>
-      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <f>(C26*$K$28*$K$26)/$K$27</f>
-        <v>2355979.1136463359</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" ref="D27:G27" si="10">(D26*$K$28*$K$26)/$K$27</f>
-        <v>4711958.2272926718</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="10"/>
-        <v>9423916.4545853436</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="10"/>
-        <v>15313864.238701185</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="10"/>
-        <v>18847832.909170687</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
+        <f>POWER($H$26, 2)/((SQRT(POWER(C26, 2)-1)-TAN(RADIANS($H$27)))*$H$28)</f>
+        <v>1.041102354262978</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ref="D27" si="10">POWER($H$26, 2)/((SQRT(POWER(D26, 2)-1)-TAN(RADIANS($H$27)))*$H$28)</f>
+        <v>0.62088451135064104</v>
+      </c>
+      <c r="E27" s="4">
+        <f>POWER($H$26, 2)/((SQRT(POWER(E26, 2)-1)-TAN(RADIANS($H$27)))*$H$28)</f>
+        <v>0.50113560113517641</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2">
-        <f>(H26*$K$28*$K$26)/$K$27</f>
-        <v>21203812.022817027</v>
+        <v>12</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2">
-        <v>2.2790000000000001E-4</v>
-      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
-        <f>(0.093/POWER(C27,0.2))*($K$26/$K$29)*(1+0.4*C26+0.147*POWER(C26,2)-0.006*POWER(C26,3))</f>
-        <v>2.3960224941866035E-2</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" ref="D28:H28" si="11">(0.093/POWER(D27,0.2))*($K$26/$K$29)*(1+0.4*D26+0.147*POWER(D26,2)-0.006*POWER(D26,3))</f>
-        <v>2.2727775168948919E-2</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6">
+        <f>1-(C27*(1-$H$29))</f>
+        <v>1.1561653531394467</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" ref="D28:E28" si="11">1-(D27*(1-$H$29))</f>
+        <v>1.0931326767025962</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" si="11"/>
-        <v>2.3596399064662203E-2</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="11"/>
-        <v>2.663692390865827E-2</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="11"/>
-        <v>2.8996379475699816E-2</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="11"/>
-        <v>3.0732111121619575E-2</v>
+        <v>1.0751703401702764</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>27.385999999999999</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2">
-        <v>313.26</v>
-      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6">
-        <f>1-$K$31*POWER((1+$K$31),2)*($K$31+$K$30*(1+$K$30)-1)*(C28/(1+POWER($K$30,2)))</f>
-        <v>0.99247534131941617</v>
-      </c>
-      <c r="D29" s="6">
-        <f t="shared" ref="D29:H29" si="12">1-$K$31*POWER((1+$K$31),2)*($K$31+$K$30*(1+$K$30)-1)*(D28/(1+POWER($K$30,2)))</f>
-        <v>0.9928623896006683</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22">
+        <f>SQRT(POWER(C26, 2)-1)*_xlfn.COTH(RADIANS($H$30))</f>
+        <v>1.3771372105922117</v>
+      </c>
+      <c r="D29" s="22">
+        <f t="shared" ref="D29:E29" si="12">SQRT(POWER(D26, 2)-1)*_xlfn.COTH(RADIANS($H$30))</f>
+        <v>2.0706894318547135</v>
+      </c>
+      <c r="E29" s="22">
         <f t="shared" si="12"/>
-        <v>0.99258960007749397</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="12"/>
-        <v>0.99163472959040899</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="12"/>
-        <v>0.99089374748957026</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" si="12"/>
-        <v>0.99034864458555649</v>
+        <v>2.4812851534623195</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>1.1499999999999999</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="20">
-        <v>1.92</v>
-      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
+        <f>($H$31*SQRT(POWER(C26,2)-1))/$H$26</f>
+        <v>0.37991228720349457</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:E30" si="13">($H$31*SQRT(POWER(D26,2)-1))/$H$26</f>
+        <v>0.57124326617079213</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="13"/>
+        <v>0.68451473869518509</v>
+      </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>40</v>
+      </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="20">
-        <v>3.02</v>
-      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.5</v>
+      </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>1.92</v>
+      </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <v>0.19600000000000001</v>
-      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4.3900000000000002E-2</v>
+      </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>0.19600000000000001</v>
+      </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6">
+        <f>C31/(C32*SQRT(POWER(C26,2)-1)*((1/POWER($H$32,2))-1))</f>
+        <v>2.5807099309296166</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" ref="D33:E33" si="14">D31/(D32*SQRT(POWER(D26,2)-1)*((1/POWER($H$32,2))-1))</f>
+        <v>1.9503778992610066</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="14"/>
+        <v>1.5201148217242304</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -10286,295 +16126,246 @@
       <c r="K33" s="12"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2">
-        <v>15.65</v>
-      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2">
-        <f>(C34*$K$36*$K$34)/$K$35</f>
-        <v>4302342.2553751646</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" ref="D35:H35" si="13">(D34*$K$36*$K$34)/$K$35</f>
-        <v>8604684.5107503291</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="13"/>
-        <v>17209369.021500658</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="13"/>
-        <v>27965224.659938566</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="13"/>
-        <v>34418738.043001316</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="13"/>
-        <v>38721080.298376486</v>
-      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2">
-        <v>2.2790000000000001E-4</v>
-      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4">
-        <f>(0.093/POWER(C35,0.2))*($K$34/$K$37)*(1+0.4*C34+0.147*POWER(C34,2)-0.006*POWER(C34,3))</f>
-        <v>5.1936153806574438E-2</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" ref="D36:H36" si="14">(0.093/POWER(D35,0.2))*($K$34/$K$37)*(1+0.4*D34+0.147*POWER(D34,2)-0.006*POWER(D34,3))</f>
-        <v>4.9264697210469707E-2</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="14"/>
-        <v>5.1147525287304818E-2</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="14"/>
-        <v>5.7738163160431268E-2</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="14"/>
-        <v>6.2852516115253915E-2</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="14"/>
-        <v>6.6614885873807844E-2</v>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
+        <v>2.7</v>
       </c>
       <c r="I36" s="12"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2">
-        <v>313.26</v>
-      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6">
-        <f>1-$K$39*POWER((1+$K$39),2)*($K$39+$K$38*(1+$K$38)-1)*(C36/(1+POWER($K$38,2)))</f>
-        <v>0.9725822382182745</v>
-      </c>
-      <c r="D37" s="6">
-        <f t="shared" ref="D37:H37" si="15">1-$K$39*POWER((1+$K$39),2)*($K$39+$K$38*(1+$K$38)-1)*(D36/(1+POWER($K$38,2)))</f>
-        <v>0.97399253442224454</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4">
+        <f>POWER($H$36, 2)/((SQRT(POWER(C36, 2)-1)-TAN(RADIANS($H$37)))*$H$38)</f>
+        <v>5.1929755561849555</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37:E37" si="15">POWER($H$36, 2)/((SQRT(POWER(D36, 2)-1)-TAN(RADIANS($H$37)))*$H$38)</f>
+        <v>3.4536516012990681</v>
+      </c>
+      <c r="E37" s="4">
         <f t="shared" si="15"/>
-        <v>0.97299856532936813</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="15"/>
-        <v>0.96951928305775481</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" si="15"/>
-        <v>0.96681935053088286</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="15"/>
-        <v>0.9648331472752667</v>
+        <v>2.8821515584934527</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
+        <v>0</v>
       </c>
       <c r="I37" s="12"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="20">
-        <v>1.4339999999999999</v>
-      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6">
+        <f>1-(C37*(1-$H$39))</f>
+        <v>2.2982438890462387</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" ref="D38:E38" si="16">1-(D37*(1-$H$39))</f>
+        <v>1.863412900324767</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="16"/>
+        <v>1.7205378896233632</v>
+      </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2">
+        <v>1.69</v>
+      </c>
       <c r="I38" s="12"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="20">
-        <v>12.85</v>
-      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22">
+        <f>SQRT(POWER(C36, 2)-1)*_xlfn.COTH(RADIANS($H$40))</f>
+        <v>1.1047050223943076</v>
+      </c>
+      <c r="D39" s="22">
+        <f t="shared" ref="D39:E39" si="17">SQRT(POWER(D36, 2)-1)*_xlfn.COTH(RADIANS($H$40))</f>
+        <v>1.6610552656586925</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="shared" si="17"/>
+        <v>1.99042488282159</v>
+      </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2">
+        <v>1.25</v>
+      </c>
       <c r="I39" s="12"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2">
-        <v>0.29499999999999998</v>
-      </c>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <f>($H$41*SQRT(POWER(C36,2)-1))/$H$36</f>
+        <v>0.44117402294164887</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40:E40" si="18">($H$41*SQRT(POWER(D36,2)-1))/$H$36</f>
+        <v>0.66335756516320765</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="18"/>
+        <v>0.79489432483464173</v>
+      </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <v>56</v>
+      </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
       <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2">
+        <v>1.4339999999999999</v>
+      </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>2</v>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2">
+        <v>0.29499999999999998</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1.1499999999999999</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6">
+        <f>C41/(C42*SQRT(POWER(C36,2)-1)*((1/POWER($H$32,2))-1))</f>
+        <v>1.824469708809328</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" ref="D43" si="19">D41/(D42*SQRT(POWER(D36,2)-1)*((1/POWER($H$32,2))-1))</f>
+        <v>1.4715199840429289</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" ref="E43" si="20">E41/(E42*SQRT(POWER(E36,2)-1)*((1/POWER($H$32,2))-1))</f>
+        <v>1.4467867896735764</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="E45" s="2">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="G45" s="2">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="H45" s="2">
-        <v>2.3759999999999999</v>
-      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
@@ -10584,101 +16375,133 @@
       <c r="A46" s="11"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2">
-        <v>0.99247534131941617</v>
+        <v>0.2</v>
       </c>
       <c r="D46" s="2">
-        <v>0.9928623896006683</v>
+        <v>0.4</v>
       </c>
       <c r="E46" s="2">
-        <v>0.99258960007749397</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.99163472959040899</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0.99089374748957026</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.99034864458555649</v>
+        <v>0.8</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2">
+        <v>8.57</v>
+      </c>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0.871</v>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2">
+        <f>(C46*$K$48*$K$46)/$K$47</f>
+        <v>2355979.1136463359</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47:G47" si="21">(D46*$K$48*$K$46)/$K$47</f>
+        <v>4711958.2272926718</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="21"/>
+        <v>9423916.4545853436</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="21"/>
+        <v>15313864.238701185</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="21"/>
+        <v>18847832.909170687</v>
+      </c>
+      <c r="H47" s="2">
+        <f>(H46*$K$48*$K$46)/$K$47</f>
+        <v>21203812.022817027</v>
       </c>
       <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2">
+        <v>2.2790000000000001E-4</v>
+      </c>
       <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6">
-        <f>(C43+C44)*C45*C46*C47</f>
-        <v>2.9781894359907914</v>
-      </c>
-      <c r="D48" s="6">
-        <f t="shared" ref="D48:H48" si="16">(D43+D44)*D45*D46*D47</f>
-        <v>2.9793508785520859</v>
-      </c>
-      <c r="E48" s="6">
-        <f t="shared" si="16"/>
-        <v>2.9785323001528612</v>
-      </c>
-      <c r="F48" s="6">
-        <f t="shared" si="16"/>
-        <v>2.9756669542052276</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" si="16"/>
-        <v>2.9734434379392796</v>
-      </c>
-      <c r="H48" s="7">
-        <f t="shared" si="16"/>
-        <v>2.9718077099340845</v>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4">
+        <f>(0.093/POWER(C47,0.2))*($K$46/$K$49)*(1+0.4*C46+0.147*POWER(C46,2)-0.006*POWER(C46,3))</f>
+        <v>2.3960224941866035E-2</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" ref="D48:H48" si="22">(0.093/POWER(D47,0.2))*($K$46/$K$49)*(1+0.4*D46+0.147*POWER(D46,2)-0.006*POWER(D46,3))</f>
+        <v>2.2727775168948919E-2</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="22"/>
+        <v>2.3596399064662203E-2</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="22"/>
+        <v>2.663692390865827E-2</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="22"/>
+        <v>2.8996379475699816E-2</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="22"/>
+        <v>3.0732111121619575E-2</v>
       </c>
       <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2">
+        <v>313.26</v>
+      </c>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6">
+        <f>1-$K$51*POWER((1+$K$51),2)*($K$51+$K$50*(1+$K$50)-1)*(C48/(1+POWER($K$50,2)))</f>
+        <v>0.99247534131941617</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" ref="D49:H49" si="23">1-$K$51*POWER((1+$K$51),2)*($K$51+$K$50*(1+$K$50)-1)*(D48/(1+POWER($K$50,2)))</f>
+        <v>0.9928623896006683</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="23"/>
+        <v>0.99258960007749397</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="23"/>
+        <v>0.99163472959040899</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="23"/>
+        <v>0.99089374748957026</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="23"/>
+        <v>0.99034864458555649</v>
+      </c>
       <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="20">
+        <v>1.92</v>
+      </c>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -10688,199 +16511,187 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="20">
+        <v>3.02</v>
+      </c>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2">
+        <v>0.19600000000000001</v>
+      </c>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G52" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1.25</v>
-      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0.45</v>
-      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2">
-        <v>3.76</v>
+        <v>0.2</v>
       </c>
       <c r="D54" s="2">
-        <v>3.76</v>
+        <v>0.4</v>
       </c>
       <c r="E54" s="2">
-        <v>3.76</v>
-      </c>
-      <c r="F54" s="2">
-        <v>3.76</v>
-      </c>
-      <c r="G54" s="2">
-        <v>3.76</v>
-      </c>
-      <c r="H54" s="2">
-        <v>3.76</v>
+        <v>0.8</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2">
+        <v>15.65</v>
+      </c>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2">
-        <v>0.9725822382182745</v>
+        <f>(C54*$K$56*$K$54)/$K$55</f>
+        <v>4302342.2553751646</v>
       </c>
       <c r="D55" s="2">
-        <v>0.97399253442224454</v>
+        <f t="shared" ref="D55:H55" si="24">(D54*$K$56*$K$54)/$K$55</f>
+        <v>8604684.5107503291</v>
       </c>
       <c r="E55" s="2">
-        <v>0.97299856532936813</v>
+        <f t="shared" si="24"/>
+        <v>17209369.021500658</v>
       </c>
       <c r="F55" s="2">
-        <v>0.96951928305775481</v>
+        <f t="shared" si="24"/>
+        <v>27965224.659938566</v>
       </c>
       <c r="G55" s="2">
-        <v>0.96681935053088286</v>
+        <f t="shared" si="24"/>
+        <v>34418738.043001316</v>
       </c>
       <c r="H55" s="2">
-        <v>0.9648331472752667</v>
+        <f t="shared" si="24"/>
+        <v>38721080.298376486</v>
       </c>
       <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2">
+        <v>2.2790000000000001E-4</v>
+      </c>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
-        <v>0.92600000000000005</v>
+        <f>(0.093/POWER(C55,0.2))*($K$54/$K$57)*(1+0.4*C54+0.147*POWER(C54,2)-0.006*POWER(C54,3))</f>
+        <v>5.1936153806574438E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>0.92600000000000005</v>
+        <f t="shared" ref="D56:H56" si="25">(0.093/POWER(D55,0.2))*($K$54/$K$57)*(1+0.4*D54+0.147*POWER(D54,2)-0.006*POWER(D54,3))</f>
+        <v>4.9264697210469707E-2</v>
       </c>
       <c r="E56" s="4">
-        <v>0.92600000000000005</v>
+        <f t="shared" si="25"/>
+        <v>5.1147525287304818E-2</v>
       </c>
       <c r="F56" s="4">
-        <v>0.92600000000000005</v>
+        <f t="shared" si="25"/>
+        <v>5.7738163160431268E-2</v>
       </c>
       <c r="G56" s="4">
-        <v>0.92600000000000005</v>
+        <f t="shared" si="25"/>
+        <v>6.2852516115253915E-2</v>
       </c>
       <c r="H56" s="4">
-        <v>0.92600000000000005</v>
+        <f t="shared" si="25"/>
+        <v>6.6614885873807844E-2</v>
       </c>
       <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
+        <v>313.26</v>
+      </c>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6">
-        <f>(C52+C53)*C54*C55*C56</f>
-        <v>5.7567064873560607</v>
+        <f>1-$K$59*POWER((1+$K$59),2)*($K$59+$K$58*(1+$K$58)-1)*(C56/(1+POWER($K$58,2)))</f>
+        <v>0.9725822382182745</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" ref="D57" si="17">(D52+D53)*D54*D55*D56</f>
-        <v>5.7650540193049897</v>
+        <f t="shared" ref="D57:H57" si="26">1-$K$59*POWER((1+$K$59),2)*($K$59+$K$58*(1+$K$58)-1)*(D56/(1+POWER($K$58,2)))</f>
+        <v>0.97399253442224454</v>
       </c>
       <c r="E57" s="6">
-        <f t="shared" ref="E57" si="18">(E52+E53)*E54*E55*E56</f>
-        <v>5.7591707241960073</v>
+        <f t="shared" si="26"/>
+        <v>0.97299856532936813</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" ref="F57" si="19">(F52+F53)*F54*F55*F56</f>
-        <v>5.7385768802645867</v>
+        <f t="shared" si="26"/>
+        <v>0.96951928305775481</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" ref="G57" si="20">(G52+G53)*G54*G55*G56</f>
-        <v>5.7225960012374912</v>
+        <f t="shared" si="26"/>
+        <v>0.96681935053088286</v>
       </c>
       <c r="H57" s="7">
-        <f t="shared" ref="H57" si="21">(H52+H53)*H54*H55*H56</f>
-        <v>5.7108396800571253</v>
+        <f t="shared" si="26"/>
+        <v>0.9648331472752667</v>
       </c>
       <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="20">
+        <v>1.4339999999999999</v>
+      </c>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -10890,23 +16701,487 @@
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="17"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="20">
+        <v>12.85</v>
+      </c>
+      <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="18"/>
+    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1.1561999999999999</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.0931</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1.0751999999999999</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2.5807000000000002</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.9503999999999999</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1.5201</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="13"/>
+    </row>
+    <row r="66" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2">
+        <v>0.99247534131941617</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.9928623896006683</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.99258960007749397</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.99163472959040899</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.99089374748957026</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.99034864458555649</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6">
+        <f>(C63+C64)*C65*C66*C67</f>
+        <v>2.9781894359907914</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" ref="D68:H68" si="27">(D63+D64)*D65*D66*D67</f>
+        <v>2.9793508785520859</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="27"/>
+        <v>2.9785323001528612</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="27"/>
+        <v>7.6688067870134606</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="27"/>
+        <v>6.2411552437022042</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="27"/>
+        <v>5.3191258962702959</v>
+      </c>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="13"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="13"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="13"/>
+    </row>
+    <row r="71" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="13"/>
+    </row>
+    <row r="72" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2.2982</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1.8633999999999999</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1.7204999999999999</v>
+      </c>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="13"/>
+    </row>
+    <row r="73" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1.8245</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1.4715</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1.4468000000000001</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="13"/>
+    </row>
+    <row r="74" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="F74" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="G74" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="H74" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="13"/>
+    </row>
+    <row r="75" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2">
+        <v>0.9725822382182745</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.97399253442224454</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.97299856532936813</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.96951928305775481</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.96681935053088286</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.9648331472752667</v>
+      </c>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="13"/>
+    </row>
+    <row r="76" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="13"/>
+    </row>
+    <row r="77" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6">
+        <f>(C72+C73)*C74*C75*C76</f>
+        <v>5.7567064873560607</v>
+      </c>
+      <c r="D77" s="6">
+        <f t="shared" ref="D77" si="28">(D72+D73)*D74*D75*D76</f>
+        <v>5.7650540193049897</v>
+      </c>
+      <c r="E77" s="6">
+        <f t="shared" ref="E77" si="29">(E72+E73)*E74*E75*E76</f>
+        <v>5.7591707241960073</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" ref="F77" si="30">(F72+F73)*F74*F75*F76</f>
+        <v>13.916724061333417</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" ref="G77" si="31">(G72+G73)*G74*G75*G76</f>
+        <v>11.226050237957008</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" ref="H77" si="32">(H72+H73)*H74*H75*H76</f>
+        <v>10.639966187438196</v>
+      </c>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="13"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Тамбов/Глава 2. Excel (Тамбов).xlsx
+++ b/Тамбов/Глава 2. Excel (Тамбов).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tambov/Documents/МАИ/Аэродинамика/6 семестр/Курсовая работа/AeroKursach/Тамбов/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4AAD3-FB7B-6446-8D24-3443905EC85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151B2555-7111-5943-97C4-9299A66F769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{507D8B9C-88C0-8D47-895B-9C70E3C93069}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{507D8B9C-88C0-8D47-895B-9C70E3C93069}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1034,22 +1034,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.22255547022759539</c:v>
+                  <c:v>0.16729828642259725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22997248317955471</c:v>
+                  <c:v>0.17043821741392973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25577094376118237</c:v>
+                  <c:v>0.18146006698578215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52597514952174806</c:v>
+                  <c:v>0.38261089355009964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3690289867399662</c:v>
+                  <c:v>0.27604546522193746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30470823803421682</c:v>
+                  <c:v>0.23430505025116416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2733,8 +2733,8 @@
       <xdr:rowOff>68444</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313676" cy="191334"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -2831,7 +2831,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -5155,8 +5155,8 @@
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -5219,7 +5219,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -5284,8 +5284,8 @@
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249748" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -5368,7 +5368,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -5452,8 +5452,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313612" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -5542,7 +5542,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -5626,8 +5626,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="345929" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -5717,7 +5717,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -5796,8 +5796,8 @@
       <xdr:rowOff>71968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5839,6 +5839,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5865,7 +5866,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5929,8 +5930,8 @@
       <xdr:rowOff>71967</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="171585" cy="180049"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -5972,6 +5973,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6024,7 +6026,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -6107,8 +6109,8 @@
       <xdr:rowOff>73412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="184794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -6197,7 +6199,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -6281,8 +6283,8 @@
       <xdr:rowOff>81879</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="430887" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -6372,7 +6374,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -6451,8 +6453,8 @@
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219355" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -6494,6 +6496,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6533,7 +6536,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -6603,8 +6606,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="192168"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -6646,6 +6649,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6703,7 +6707,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -6779,8 +6783,8 @@
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -6843,7 +6847,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -6908,8 +6912,8 @@
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249748" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -6992,7 +6996,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -7076,8 +7080,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313612" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -7166,7 +7170,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -7250,8 +7254,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="345929" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -7341,7 +7345,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -7420,8 +7424,8 @@
       <xdr:rowOff>71968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -7463,6 +7467,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7489,7 +7494,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -7553,8 +7558,8 @@
       <xdr:rowOff>71967</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="171585" cy="180049"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -7596,6 +7601,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7648,7 +7654,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -7731,8 +7737,8 @@
       <xdr:rowOff>73412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="184794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36">
@@ -7821,7 +7827,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36">
@@ -7905,8 +7911,8 @@
       <xdr:rowOff>81879</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="430887" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -7996,7 +8002,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -8075,8 +8081,8 @@
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219355" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -8118,6 +8124,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8157,7 +8164,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -8227,8 +8234,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="192168"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -8270,6 +8277,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8327,7 +8335,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -8403,8 +8411,8 @@
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
@@ -8467,7 +8475,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
@@ -8532,8 +8540,8 @@
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196528" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -8616,7 +8624,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -8694,8 +8702,8 @@
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180626" cy="184602"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -8737,6 +8745,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8777,7 +8786,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -8854,8 +8863,8 @@
       <xdr:rowOff>85325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="280590" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44">
@@ -8945,7 +8954,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44">
@@ -9036,8 +9045,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219355" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="TextBox 47">
@@ -9079,6 +9088,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9118,7 +9128,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="TextBox 47">
@@ -9188,8 +9198,8 @@
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="174600" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="TextBox 48">
@@ -9231,6 +9241,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9270,7 +9281,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="TextBox 48">
@@ -9346,8 +9357,8 @@
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="545548" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49">
@@ -9437,7 +9448,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49">
@@ -9522,8 +9533,8 @@
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="TextBox 51">
@@ -9586,7 +9597,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="TextBox 51">
@@ -9651,8 +9662,8 @@
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196528" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52">
@@ -9735,7 +9746,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52">
@@ -9813,8 +9824,8 @@
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180626" cy="184602"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53">
@@ -9856,6 +9867,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9896,7 +9908,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53">
@@ -9973,8 +9985,8 @@
       <xdr:rowOff>85325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="280590" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="TextBox 54">
@@ -10064,7 +10076,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="TextBox 54">
@@ -10155,8 +10167,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219355" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="TextBox 55">
@@ -10198,6 +10210,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10237,7 +10250,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="TextBox 55">
@@ -10307,8 +10320,8 @@
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="174600" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="57" name="TextBox 56">
@@ -10350,6 +10363,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10389,7 +10403,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="57" name="TextBox 56">
@@ -10465,8 +10479,8 @@
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="508736" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="TextBox 57">
@@ -10556,7 +10570,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="TextBox 57">
@@ -10641,8 +10655,8 @@
       <xdr:rowOff>54187</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394595" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="59" name="TextBox 58">
@@ -10705,7 +10719,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="59" name="TextBox 58">
@@ -10770,8 +10784,8 @@
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="60" name="TextBox 59">
@@ -10834,7 +10848,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="60" name="TextBox 59">
@@ -10899,8 +10913,8 @@
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="373949" cy="188770"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="61" name="TextBox 60">
@@ -10995,7 +11009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="61" name="TextBox 60">
@@ -11073,8 +11087,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309572" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="62" name="TextBox 61">
@@ -11163,7 +11177,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="62" name="TextBox 61">
@@ -11247,8 +11261,8 @@
       <xdr:rowOff>98812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364267" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="TextBox 62">
@@ -11338,7 +11352,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="TextBox 62">
@@ -11417,8 +11431,8 @@
       <xdr:rowOff>98813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="425309" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="66" name="TextBox 65">
@@ -11507,7 +11521,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="66" name="TextBox 65">
@@ -11591,8 +11605,8 @@
       <xdr:rowOff>107280</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="576953" cy="179473"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="69" name="TextBox 68">
@@ -11695,7 +11709,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="69" name="TextBox 68">
@@ -11793,8 +11807,8 @@
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="365678" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="70" name="TextBox 69">
@@ -11884,7 +11898,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="70" name="TextBox 69">
@@ -11962,8 +11976,8 @@
       <xdr:rowOff>175012</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="375487" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="72" name="TextBox 71">
@@ -12053,7 +12067,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="72" name="TextBox 71">
@@ -12132,8 +12146,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="184794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="73" name="TextBox 72">
@@ -12222,7 +12236,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="73" name="TextBox 72">
@@ -12306,8 +12320,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1136978" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="TextBox 73">
@@ -12349,6 +12363,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12470,7 +12485,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="TextBox 73">
@@ -12590,8 +12605,8 @@
       <xdr:rowOff>88897</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="884538" cy="421206"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="75" name="TextBox 74">
@@ -12633,6 +12648,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12770,7 +12786,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="75" name="TextBox 74">
@@ -12896,8 +12912,8 @@
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="449739" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="76" name="TextBox 75">
@@ -13012,7 +13028,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="76" name="TextBox 75">
@@ -13120,8 +13136,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="192168"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="77" name="TextBox 76">
@@ -13222,7 +13238,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="77" name="TextBox 76">
@@ -13306,8 +13322,8 @@
       <xdr:rowOff>97366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387350" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77">
@@ -13349,6 +13365,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13409,7 +13426,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77">
@@ -13498,8 +13515,8 @@
       <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="449739" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="80" name="TextBox 79">
@@ -13596,7 +13613,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="80" name="TextBox 79">
@@ -13681,8 +13698,8 @@
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="81" name="TextBox 80">
@@ -13745,7 +13762,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="81" name="TextBox 80">
@@ -13810,8 +13827,8 @@
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="373949" cy="188770"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81">
@@ -13906,7 +13923,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="82" name="TextBox 81">
@@ -13984,8 +14001,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309572" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="83" name="TextBox 82">
@@ -14074,7 +14091,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="83" name="TextBox 82">
@@ -14158,8 +14175,8 @@
       <xdr:rowOff>98812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364267" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83">
@@ -14249,7 +14266,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83">
@@ -14328,8 +14345,8 @@
       <xdr:rowOff>98813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="425309" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="85" name="TextBox 84">
@@ -14418,7 +14435,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="85" name="TextBox 84">
@@ -14502,8 +14519,8 @@
       <xdr:rowOff>107280</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="576953" cy="179473"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="86" name="TextBox 85">
@@ -14606,7 +14623,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="86" name="TextBox 85">
@@ -14704,8 +14721,8 @@
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="365678" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="87" name="TextBox 86">
@@ -14795,7 +14812,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="87" name="TextBox 86">
@@ -14873,8 +14890,8 @@
       <xdr:rowOff>175012</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="375487" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="88" name="TextBox 87">
@@ -14964,7 +14981,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="88" name="TextBox 87">
@@ -15043,8 +15060,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="184794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="89" name="TextBox 88">
@@ -15133,7 +15150,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="89" name="TextBox 88">
@@ -15217,8 +15234,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1136978" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="90" name="TextBox 89">
@@ -15260,6 +15277,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15381,7 +15399,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="90" name="TextBox 89">
@@ -15501,8 +15519,8 @@
       <xdr:rowOff>88897</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="884538" cy="421206"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="91" name="TextBox 90">
@@ -15544,6 +15562,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -15681,7 +15700,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="91" name="TextBox 90">
@@ -15807,8 +15826,8 @@
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="449739" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="92" name="TextBox 91">
@@ -15923,7 +15942,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="92" name="TextBox 91">
@@ -16031,8 +16050,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="334579" cy="192168"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="93" name="TextBox 92">
@@ -16133,7 +16152,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="93" name="TextBox 92">
@@ -16217,8 +16236,8 @@
       <xdr:rowOff>97366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387350" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="94" name="TextBox 93">
@@ -16260,6 +16279,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -16320,7 +16340,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="94" name="TextBox 93">
@@ -16409,8 +16429,8 @@
       <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="449739" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="95" name="TextBox 94">
@@ -16507,7 +16527,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="95" name="TextBox 94">
@@ -16592,8 +16612,8 @@
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="100" name="TextBox 99">
@@ -16656,7 +16676,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="100" name="TextBox 99">
@@ -16721,8 +16741,8 @@
       <xdr:rowOff>119192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="188513" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="101" name="TextBox 100">
@@ -16805,7 +16825,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="101" name="TextBox 100">
@@ -16883,8 +16903,8 @@
       <xdr:rowOff>90346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="323935" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="102" name="TextBox 101">
@@ -16983,7 +17003,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="102" name="TextBox 101">
@@ -17074,8 +17094,8 @@
       <xdr:rowOff>120391</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="258532" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="108" name="TextBox 107">
@@ -17117,6 +17137,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -17143,7 +17164,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="108" name="TextBox 107">
@@ -17207,8 +17228,8 @@
       <xdr:rowOff>97950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="109" name="TextBox 108">
@@ -17271,7 +17292,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="109" name="TextBox 108">
@@ -17336,8 +17357,8 @@
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="455317" cy="187808"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="111" name="TextBox 110">
@@ -17379,6 +17400,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -17443,7 +17465,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="111" name="TextBox 110">
@@ -17546,8 +17568,8 @@
       <xdr:rowOff>55033</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="209673" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="TextBox 112">
@@ -17589,6 +17611,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -17630,7 +17653,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="113" name="TextBox 112">
@@ -17695,8 +17718,8 @@
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="156260" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="114" name="TextBox 113">
@@ -17738,6 +17761,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -17777,7 +17801,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="114" name="TextBox 113">
@@ -17847,8 +17871,8 @@
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355738" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="115" name="TextBox 114">
@@ -17890,6 +17914,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -17947,7 +17972,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="115" name="TextBox 114">
@@ -18037,8 +18062,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355738" cy="176202"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="116" name="TextBox 115">
@@ -18080,6 +18105,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -18149,7 +18175,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="116" name="TextBox 115">
@@ -18239,8 +18265,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="500330" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="117" name="TextBox 116">
@@ -18282,6 +18308,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -18337,7 +18364,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="117" name="TextBox 116">
@@ -18420,8 +18447,8 @@
       <xdr:rowOff>55032</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="156261" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="TextBox 117">
@@ -18463,6 +18490,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -18514,7 +18542,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="TextBox 117">
@@ -18584,8 +18612,8 @@
       <xdr:rowOff>71966</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264368" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="119" name="TextBox 118">
@@ -18627,6 +18655,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -18676,7 +18705,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="119" name="TextBox 118">
@@ -18759,8 +18788,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="230961" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="120" name="TextBox 119">
@@ -18802,6 +18831,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -18852,7 +18882,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="120" name="TextBox 119">
@@ -18936,8 +18966,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="225639" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="TextBox 121">
@@ -18979,6 +19009,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -19005,7 +19036,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="122" name="TextBox 121">
@@ -19069,8 +19100,8 @@
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="293414" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="123" name="TextBox 122">
@@ -19112,6 +19143,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -19171,7 +19203,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="123" name="TextBox 122">
@@ -19263,8 +19295,8 @@
       <xdr:rowOff>80434</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="467436" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="124" name="TextBox 123">
@@ -19306,6 +19338,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -19362,7 +19395,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="124" name="TextBox 123">
@@ -19446,8 +19479,8 @@
       <xdr:rowOff>88747</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="127" name="TextBox 126">
@@ -19510,7 +19543,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="127" name="TextBox 126">
@@ -19575,8 +19608,8 @@
       <xdr:rowOff>109989</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="349711" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="128" name="TextBox 127">
@@ -19676,7 +19709,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="128" name="TextBox 127">
@@ -19768,8 +19801,8 @@
       <xdr:rowOff>81143</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="416011" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="129" name="TextBox 128">
@@ -19859,7 +19892,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="129" name="TextBox 128">
@@ -19938,8 +19971,8 @@
       <xdr:rowOff>122582</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="255839" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="132" name="TextBox 131">
@@ -19981,6 +20014,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -20019,7 +20053,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="132" name="TextBox 131">
@@ -20095,8 +20129,8 @@
       <xdr:rowOff>140988</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="268150" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="133" name="TextBox 132">
@@ -20138,6 +20172,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -20195,7 +20230,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="133" name="TextBox 132">
@@ -20291,8 +20326,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="500330" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="134" name="TextBox 133">
@@ -20334,6 +20369,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -20389,7 +20425,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="134" name="TextBox 133">
@@ -20472,8 +20508,8 @@
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355738" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="TextBox 134">
@@ -20515,6 +20551,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -20572,7 +20609,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="TextBox 134">
@@ -20662,8 +20699,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355738" cy="176202"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="136" name="TextBox 135">
@@ -20705,6 +20742,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -20774,7 +20812,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="136" name="TextBox 135">
@@ -20864,8 +20902,8 @@
       <xdr:rowOff>115143</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="268150" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="137" name="TextBox 136">
@@ -20968,7 +21006,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="137" name="TextBox 136">
@@ -21060,8 +21098,8 @@
       <xdr:rowOff>101233</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387222" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="138" name="TextBox 137">
@@ -21161,7 +21199,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="138" name="TextBox 137">
@@ -21253,8 +21291,8 @@
       <xdr:rowOff>87534</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="237757" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="139" name="TextBox 138">
@@ -21337,7 +21375,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="139" name="TextBox 138">
@@ -21415,8 +21453,8 @@
       <xdr:rowOff>83484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="225639" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="TextBox 139">
@@ -21499,7 +21537,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="TextBox 139">
@@ -21577,8 +21615,8 @@
       <xdr:rowOff>49401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="394595" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="141" name="TextBox 140">
@@ -21641,7 +21679,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="141" name="TextBox 140">
@@ -21706,8 +21744,8 @@
       <xdr:rowOff>68444</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313676" cy="191334"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="142" name="TextBox 141">
@@ -21804,7 +21842,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="142" name="TextBox 141">
@@ -21894,8 +21932,8 @@
       <xdr:rowOff>78938</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="411651" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="143" name="TextBox 142">
@@ -21992,7 +22030,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="143" name="TextBox 142">
@@ -22082,8 +22120,8 @@
       <xdr:rowOff>80150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="399533" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="144" name="TextBox 143">
@@ -22180,7 +22218,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="144" name="TextBox 143">
@@ -22270,8 +22308,8 @@
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="545548" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="TextBox 144">
@@ -22361,7 +22399,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="TextBox 144">
@@ -22446,8 +22484,8 @@
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="508736" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="146" name="TextBox 145">
@@ -22537,7 +22575,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="146" name="TextBox 145">
@@ -22622,8 +22660,8 @@
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="212430" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="147" name="TextBox 146">
@@ -22665,6 +22703,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -22717,7 +22756,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="147" name="TextBox 146">
@@ -22788,8 +22827,8 @@
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="212430" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="148" name="TextBox 147">
@@ -22831,6 +22870,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -22883,7 +22923,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="148" name="TextBox 147">
@@ -22954,8 +22994,8 @@
       <xdr:rowOff>87534</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="237757" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="149" name="TextBox 148">
@@ -23038,7 +23078,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="149" name="TextBox 148">
@@ -23116,8 +23156,8 @@
       <xdr:rowOff>83484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="225639" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="150" name="TextBox 149">
@@ -23200,7 +23240,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="150" name="TextBox 149">
@@ -23278,8 +23318,8 @@
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="369140" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="152" name="TextBox 151">
@@ -23321,6 +23361,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -23379,7 +23420,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="152" name="TextBox 151">
@@ -23450,8 +23491,8 @@
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="321242" cy="188770"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="153" name="TextBox 152">
@@ -23493,6 +23534,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -23550,7 +23592,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="153" name="TextBox 152">
@@ -23620,8 +23662,8 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="363561" cy="188706"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="154" name="TextBox 153">
@@ -23663,6 +23705,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -23720,7 +23763,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="154" name="TextBox 153">
@@ -23790,8 +23833,8 @@
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="351443" cy="176202"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="155" name="TextBox 154">
@@ -23833,6 +23876,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -23890,7 +23934,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="155" name="TextBox 154">
@@ -23960,8 +24004,8 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="253852" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="156" name="TextBox 155">
@@ -24003,6 +24047,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -24029,7 +24074,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="156" name="TextBox 155">
@@ -24093,8 +24138,8 @@
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="321242" cy="184794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="157" name="TextBox 156">
@@ -24136,6 +24181,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -24181,7 +24227,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="157" name="TextBox 156">
@@ -24251,8 +24297,8 @@
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="419217" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="158" name="TextBox 157">
@@ -24294,6 +24340,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -24339,7 +24386,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="158" name="TextBox 157">
@@ -24409,8 +24456,8 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="407099" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="159" name="TextBox 158">
@@ -24452,6 +24499,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -24497,7 +24545,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="159" name="TextBox 158">
@@ -24567,8 +24615,8 @@
       <xdr:rowOff>95316</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="357341" cy="266035"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="160" name="TextBox 159">
@@ -24659,7 +24707,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="160" name="TextBox 159">
@@ -24749,8 +24797,8 @@
       <xdr:rowOff>88747</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="161" name="TextBox 160">
@@ -24813,7 +24861,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="161" name="TextBox 160">
@@ -24878,8 +24926,8 @@
       <xdr:rowOff>48107</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="162" name="TextBox 161">
@@ -24942,7 +24990,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="162" name="TextBox 161">
@@ -25058,8 +25106,8 @@
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="120738" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="165" name="TextBox 164">
@@ -25101,6 +25149,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -25122,7 +25171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="165" name="TextBox 164">
@@ -25223,8 +25272,8 @@
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="917624" cy="199542"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="167" name="TextBox 166">
@@ -25266,6 +25315,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -25363,7 +25413,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="167" name="TextBox 166">
@@ -25465,8 +25515,8 @@
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="155363" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="168" name="TextBox 167">
@@ -25508,6 +25558,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -25528,7 +25579,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="168" name="TextBox 167">
@@ -25592,8 +25643,8 @@
       <xdr:rowOff>223520</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="245645" cy="182935"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="169" name="TextBox 168">
@@ -25635,6 +25686,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -25683,7 +25735,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="169" name="TextBox 168">
@@ -25766,8 +25818,8 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="199990" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="170" name="TextBox 169">
@@ -25830,7 +25882,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="170" name="TextBox 169">
@@ -26232,8 +26284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7198E69-7FB2-674D-9622-2EA6BECDD97C}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="S130" sqref="S130"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26446,7 +26498,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2">
-        <v>3.5139999999999998</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="L11" s="13"/>
     </row>
@@ -26455,27 +26507,27 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2">
         <f>$K$11*SQRT(ABS(POWER(C11, 2)-1))</f>
-        <v>3.443002782456035</v>
+        <v>3.1177105446144289</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ref="D12:H12" si="2">$K$11*SQRT(ABS(POWER(D11, 2)-1))</f>
-        <v>3.220634198414964</v>
+        <v>2.9163511722698963</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>2.1083999999999996</v>
+        <v>1.9091999999999996</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>2.9189476254294116</v>
+        <v>2.6431677131805316</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>4.3889845932743947</v>
+        <v>3.9743167261807413</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>5.2592736228494523</v>
+        <v>4.7623815218858727</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -26486,22 +26538,22 @@
       <c r="A13" s="11"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D13" s="4">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.7500000000000002E-2</v>
       </c>
       <c r="G13" s="4">
         <v>1.4E-2</v>
       </c>
       <c r="H13" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -26513,27 +26565,27 @@
       <c r="B14" s="5"/>
       <c r="C14" s="6">
         <f>C13*$K$11</f>
-        <v>5.7980999999999998E-2</v>
+        <v>5.0911999999999999E-2</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" ref="D14:H14" si="3">D13*$K$11</f>
-        <v>5.9737999999999999E-2</v>
+        <v>5.2503000000000001E-2</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="3"/>
-        <v>7.2037000000000004E-2</v>
+        <v>5.8866999999999996E-2</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="3"/>
-        <v>6.1495000000000001E-2</v>
+        <v>5.4094000000000003E-2</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="3"/>
-        <v>4.9195999999999997E-2</v>
+        <v>4.4547999999999997E-2</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="3"/>
-        <v>4.3924999999999999E-2</v>
+        <v>4.1366E-2</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -26592,7 +26644,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
-        <v>1.5980000000000001</v>
+        <v>2.052</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -26601,27 +26653,27 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2">
         <f>$K$17*SQRT(ABS(POWER(C17, 2)-1))</f>
-        <v>1.5657138435870075</v>
+        <v>2.0105411808764324</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ref="D18:H18" si="4">$K$17*SQRT(ABS(POWER(D17, 2)-1))</f>
-        <v>1.4645911921078865</v>
+        <v>1.8806890652098767</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="4"/>
-        <v>0.95879999999999987</v>
+        <v>1.2311999999999999</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3273984932943086</v>
+        <f>$K$17*SQRT(ABS(POWER(F17, 2)-1))</f>
+        <v>1.7045192166707892</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="4"/>
-        <v>1.9959013602881286</v>
+        <v>2.5629471785427032</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="4"/>
-        <v>2.3916674016259036</v>
+        <v>3.0711523830640513</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -26632,22 +26684,22 @@
       <c r="A19" s="11"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="D19" s="4">
-        <v>2.6499999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>2.9000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F19" s="4">
-        <v>2.7E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="G19" s="4">
-        <v>2.35E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H19" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -26658,28 +26710,28 @@
       <c r="A20" s="11"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6">
-        <f>C19*$K$11</f>
-        <v>8.7849999999999998E-2</v>
+        <f>C19*$K$17</f>
+        <v>4.2066000000000006E-2</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" ref="D20" si="5">D19*$K$11</f>
-        <v>9.3120999999999995E-2</v>
+        <f t="shared" ref="D20:H20" si="5">D19*$K$17</f>
+        <v>4.3092000000000005E-2</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" ref="E20" si="6">E19*$K$11</f>
-        <v>0.101906</v>
+        <f t="shared" si="5"/>
+        <v>4.7196000000000002E-2</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20" si="7">F19*$K$11</f>
-        <v>9.487799999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.4117999999999997E-2</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" ref="G20" si="8">G19*$K$11</f>
-        <v>8.2579E-2</v>
+        <f>G19*$K$17</f>
+        <v>3.8988000000000002E-2</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" ref="H20" si="9">H19*$K$11</f>
-        <v>7.3793999999999998E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5910000000000004E-2</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -26759,7 +26811,7 @@
         <v>1.041102354262978</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" ref="D27" si="10">POWER($H$26, 2)/((SQRT(POWER(D26, 2)-1)-TAN(RADIANS($H$27)))*$H$28)</f>
+        <f t="shared" ref="D27" si="6">POWER($H$26, 2)/((SQRT(POWER(D26, 2)-1)-TAN(RADIANS($H$27)))*$H$28)</f>
         <v>0.62088451135064104</v>
       </c>
       <c r="E27" s="4">
@@ -26784,11 +26836,11 @@
         <v>1.1561653531394467</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" ref="D28:E28" si="11">1-(D27*(1-$H$29))</f>
+        <f t="shared" ref="D28:E28" si="7">1-(D27*(1-$H$29))</f>
         <v>1.0931326767025962</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1.0751703401702764</v>
       </c>
       <c r="F28" s="12"/>
@@ -26809,11 +26861,11 @@
         <v>1.3771372105922117</v>
       </c>
       <c r="D29" s="22">
-        <f t="shared" ref="D29:E29" si="12">SQRT(POWER(D26, 2)-1)*_xlfn.COTH(RADIANS($H$30))</f>
+        <f t="shared" ref="D29:E29" si="8">SQRT(POWER(D26, 2)-1)*_xlfn.COTH(RADIANS($H$30))</f>
         <v>2.0706894318547135</v>
       </c>
       <c r="E29" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2.4812851534623195</v>
       </c>
       <c r="F29" s="12"/>
@@ -26834,11 +26886,11 @@
         <v>0.37991228720349457</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30:E30" si="13">($H$31*SQRT(POWER(D26,2)-1))/$H$26</f>
+        <f t="shared" ref="D30:E30" si="9">($H$31*SQRT(POWER(D26,2)-1))/$H$26</f>
         <v>0.57124326617079213</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0.68451473869518509</v>
       </c>
       <c r="F30" s="12"/>
@@ -26903,11 +26955,11 @@
         <v>2.5807099309296166</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" ref="D33:E33" si="14">D31/(D32*SQRT(POWER(D26,2)-1)*((1/POWER($H$32,2))-1))</f>
+        <f t="shared" ref="D33:E33" si="10">D31/(D32*SQRT(POWER(D26,2)-1)*((1/POWER($H$32,2))-1))</f>
         <v>1.9503778992610066</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.5201148217242304</v>
       </c>
       <c r="F33" s="12"/>
@@ -26976,11 +27028,11 @@
         <v>5.1929755561849555</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" ref="D37:E37" si="15">POWER($H$36, 2)/((SQRT(POWER(D36, 2)-1)-TAN(RADIANS($H$37)))*$H$38)</f>
+        <f t="shared" ref="D37:E37" si="11">POWER($H$36, 2)/((SQRT(POWER(D36, 2)-1)-TAN(RADIANS($H$37)))*$H$38)</f>
         <v>3.4536516012990681</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.8821515584934527</v>
       </c>
       <c r="F37" s="12"/>
@@ -27001,11 +27053,11 @@
         <v>2.2982438890462387</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" ref="D38:E38" si="16">1-(D37*(1-$H$39))</f>
+        <f t="shared" ref="D38:E38" si="12">1-(D37*(1-$H$39))</f>
         <v>1.863412900324767</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.7205378896233632</v>
       </c>
       <c r="F38" s="12"/>
@@ -27026,11 +27078,11 @@
         <v>1.1047050223943076</v>
       </c>
       <c r="D39" s="22">
-        <f t="shared" ref="D39:E39" si="17">SQRT(POWER(D36, 2)-1)*_xlfn.COTH(RADIANS($H$40))</f>
+        <f t="shared" ref="D39:E39" si="13">SQRT(POWER(D36, 2)-1)*_xlfn.COTH(RADIANS($H$40))</f>
         <v>1.6610552656586925</v>
       </c>
       <c r="E39" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1.99042488282159</v>
       </c>
       <c r="F39" s="12"/>
@@ -27051,11 +27103,11 @@
         <v>0.44117402294164887</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" ref="D40:E40" si="18">($H$41*SQRT(POWER(D36,2)-1))/$H$36</f>
+        <f t="shared" ref="D40:E40" si="14">($H$41*SQRT(POWER(D36,2)-1))/$H$36</f>
         <v>0.66335756516320765</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0.79489432483464173</v>
       </c>
       <c r="F40" s="12"/>
@@ -27120,11 +27172,11 @@
         <v>1.824469708809328</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" ref="D43" si="19">D41/(D42*SQRT(POWER(D36,2)-1)*((1/POWER($H$32,2))-1))</f>
+        <f t="shared" ref="D43" si="15">D41/(D42*SQRT(POWER(D36,2)-1)*((1/POWER($H$32,2))-1))</f>
         <v>1.4715199840429289</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" ref="E43" si="20">E41/(E42*SQRT(POWER(E36,2)-1)*((1/POWER($H$32,2))-1))</f>
+        <f t="shared" ref="E43" si="16">E41/(E42*SQRT(POWER(E36,2)-1)*((1/POWER($H$32,2))-1))</f>
         <v>1.4467867896735764</v>
       </c>
       <c r="F43" s="12"/>
@@ -27199,19 +27251,19 @@
         <v>2355979.1136463359</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" ref="D47:G47" si="21">(D46*$K$48*$K$46)/$K$47</f>
+        <f t="shared" ref="D47:G47" si="17">(D46*$K$48*$K$46)/$K$47</f>
         <v>4711958.2272926718</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>9423916.4545853436</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>15313864.238701185</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>18847832.909170687</v>
       </c>
       <c r="H47" s="2">
@@ -27233,23 +27285,23 @@
         <v>2.3960224941866035E-2</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" ref="D48:H48" si="22">(0.093/POWER(D47,0.2))*($K$46/$K$49)*(1+0.4*D46+0.147*POWER(D46,2)-0.006*POWER(D46,3))</f>
+        <f t="shared" ref="D48:H48" si="18">(0.093/POWER(D47,0.2))*($K$46/$K$49)*(1+0.4*D46+0.147*POWER(D46,2)-0.006*POWER(D46,3))</f>
         <v>2.2727775168948919E-2</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>2.3596399064662203E-2</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>2.663692390865827E-2</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>2.8996379475699816E-2</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>3.0732111121619575E-2</v>
       </c>
       <c r="I48" s="12"/>
@@ -27267,23 +27319,23 @@
         <v>0.99247534131941617</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" ref="D49:H49" si="23">1-$K$51*POWER((1+$K$51),2)*($K$51+$K$50*(1+$K$50)-1)*(D48/(1+POWER($K$50,2)))</f>
+        <f t="shared" ref="D49:H49" si="19">1-$K$51*POWER((1+$K$51),2)*($K$51+$K$50*(1+$K$50)-1)*(D48/(1+POWER($K$50,2)))</f>
         <v>0.9928623896006683</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.99258960007749397</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.99163472959040899</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.99089374748957026</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.99034864458555649</v>
       </c>
       <c r="I49" s="12"/>
@@ -27389,23 +27441,23 @@
         <v>4302342.2553751646</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" ref="D55:H55" si="24">(D54*$K$56*$K$54)/$K$55</f>
+        <f t="shared" ref="D55:H55" si="20">(D54*$K$56*$K$54)/$K$55</f>
         <v>8604684.5107503291</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>17209369.021500658</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>27965224.659938566</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>34418738.043001316</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>38721080.298376486</v>
       </c>
       <c r="I55" s="12"/>
@@ -27423,23 +27475,23 @@
         <v>5.1936153806574438E-2</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" ref="D56:H56" si="25">(0.093/POWER(D55,0.2))*($K$54/$K$57)*(1+0.4*D54+0.147*POWER(D54,2)-0.006*POWER(D54,3))</f>
+        <f t="shared" ref="D56:H56" si="21">(0.093/POWER(D55,0.2))*($K$54/$K$57)*(1+0.4*D54+0.147*POWER(D54,2)-0.006*POWER(D54,3))</f>
         <v>4.9264697210469707E-2</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>5.1147525287304818E-2</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>5.7738163160431268E-2</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>6.2852516115253915E-2</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>6.6614885873807844E-2</v>
       </c>
       <c r="I56" s="12"/>
@@ -27457,23 +27509,23 @@
         <v>0.9725822382182745</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" ref="D57:H57" si="26">1-$K$59*POWER((1+$K$59),2)*($K$59+$K$58*(1+$K$58)-1)*(D56/(1+POWER($K$58,2)))</f>
+        <f t="shared" ref="D57:H57" si="22">1-$K$59*POWER((1+$K$59),2)*($K$59+$K$58*(1+$K$58)-1)*(D56/(1+POWER($K$58,2)))</f>
         <v>0.97399253442224454</v>
       </c>
       <c r="E57" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0.97299856532936813</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0.96951928305775481</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0.96681935053088286</v>
       </c>
       <c r="H57" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0.9648331472752667</v>
       </c>
       <c r="I57" s="12"/>
@@ -27707,23 +27759,23 @@
         <v>2.9781894359907914</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" ref="D68:H68" si="27">(D63+D64)*D65*D66*D67</f>
+        <f t="shared" ref="D68:H68" si="23">(D63+D64)*D65*D66*D67</f>
         <v>2.9793508785520859</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>2.9785323001528612</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>7.6688067870134606</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>6.2411552437022042</v>
       </c>
       <c r="H68" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>5.3191258962702959</v>
       </c>
       <c r="I68" s="12"/>
@@ -27923,23 +27975,23 @@
         <v>5.7567064873560607</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" ref="D77" si="28">(D72+D73)*D74*D75*D76</f>
+        <f t="shared" ref="D77" si="24">(D72+D73)*D74*D75*D76</f>
         <v>5.7650540193049897</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" ref="E77" si="29">(E72+E73)*E74*E75*E76</f>
+        <f t="shared" ref="E77" si="25">(E72+E73)*E74*E75*E76</f>
         <v>5.7591707241960073</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" ref="F77" si="30">(F72+F73)*F74*F75*F76</f>
+        <f t="shared" ref="F77" si="26">(F72+F73)*F74*F75*F76</f>
         <v>13.916724061333417</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" ref="G77" si="31">(G72+G73)*G74*G75*G76</f>
+        <f t="shared" ref="G77" si="27">(G72+G73)*G74*G75*G76</f>
         <v>11.226050237957008</v>
       </c>
       <c r="H77" s="7">
-        <f t="shared" ref="H77" si="32">(H72+H73)*H74*H75*H76</f>
+        <f t="shared" ref="H77" si="28">(H72+H73)*H74*H75*H76</f>
         <v>10.639966187438196</v>
       </c>
       <c r="I77" s="12"/>
@@ -28026,11 +28078,11 @@
         <v>1.0734856079340651</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" ref="D84:E84" si="33">0.5*(1+SQRT(1+POWER($K$83/(2*$K$84),2)*(1-POWER(D83,2))))</f>
+        <f t="shared" ref="D84:E84" si="29">0.5*(1+SQRT(1+POWER($K$83/(2*$K$84),2)*(1-POWER(D83,2))))</f>
         <v>1.0648230029788679</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1.0287552869147638</v>
       </c>
       <c r="F84" s="2">
@@ -28038,7 +28090,7 @@
         <v>0.87931990213512445</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" ref="G84" si="34">SQRT(1-POWER($K$83/(2*$K$84),2)*(POWER(G83,2)-1))</f>
+        <f t="shared" ref="G84" si="30">SQRT(1-POWER($K$83/(2*$K$84),2)*(POWER(G83,2)-1))</f>
         <v>0.69802770267462999</v>
       </c>
       <c r="H84" s="2">
@@ -28151,11 +28203,11 @@
         <v>50.284862768173788</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" ref="G89:H89" si="35">DEGREES(ASIN(1/G87))</f>
+        <f t="shared" ref="G89:H89" si="31">DEGREES(ASIN(1/G87))</f>
         <v>38.682187453489441</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>33.748988595888584</v>
       </c>
       <c r="I89" s="12"/>
@@ -28201,11 +28253,11 @@
         <v>0.63160040774719672</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" ref="C91:E91" si="36">D90/($K$89/2)</f>
+        <f t="shared" ref="D91:E91" si="32">D90/($K$89/2)</f>
         <v>0.63160040774719672</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0.63160040774719672</v>
       </c>
       <c r="F91" s="2">
@@ -28213,11 +28265,11 @@
         <v>0.63160040774719672</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" ref="G91:H91" si="37">G90/($K$89/2)</f>
+        <f t="shared" ref="G91:H91" si="33">G90/($K$89/2)</f>
         <v>0.5561671763506626</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>0.5300713557594291</v>
       </c>
       <c r="I91" s="12"/>
@@ -28235,15 +28287,15 @@
         <v>5.18</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" ref="D92:F92" si="38">$K$88</f>
+        <f t="shared" ref="D92:F92" si="34">$K$88</f>
         <v>5.18</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>5.18</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>5.18</v>
       </c>
       <c r="G92" s="2">
@@ -28267,11 +28319,11 @@
         <v>1</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" ref="C93:E93" si="39">D92/$K$88</f>
+        <f t="shared" ref="D93:E93" si="35">D92/$K$88</f>
         <v>1</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="F93" s="2">
@@ -28279,11 +28331,11 @@
         <v>1</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" ref="G93:H93" si="40">G92/$K$88</f>
+        <f t="shared" ref="G93:H93" si="36">G92/$K$88</f>
         <v>0.93088803088803096</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>0.76177606177606183</v>
       </c>
       <c r="I93" s="12"/>
@@ -28321,27 +28373,27 @@
       <c r="A95" s="11"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4">
-        <f t="shared" ref="C95" si="41">(C88/(2*PI()*$K$91*C91))*C94*C93*$K$90</f>
+        <f t="shared" ref="C95" si="37">(C88/(2*PI()*$K$91*C91))*C94*C93*$K$90</f>
         <v>1.3678240691559006E-2</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" ref="D95" si="42">(D88/(2*PI()*$K$91*D91))*D94*D93*$K$90</f>
+        <f t="shared" ref="D95" si="38">(D88/(2*PI()*$K$91*D91))*D94*D93*$K$90</f>
         <v>1.4083882364368647E-2</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" ref="E95" si="43">(E88/(2*PI()*$K$91*E91))*E94*E93*$K$90</f>
+        <f t="shared" ref="E95" si="39">(E88/(2*PI()*$K$91*E91))*E94*E93*$K$90</f>
         <v>1.6985586771097863E-2</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" ref="D95:H95" si="44">(F88/(2*PI()*$K$91*F91))*F94*F93*$K$90</f>
+        <f t="shared" ref="F95:H95" si="40">(F88/(2*PI()*$K$91*F91))*F94*F93*$K$90</f>
         <v>3.7350068974834463E-2</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>2.5705812397293675E-2</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>1.6784463029638527E-2</v>
       </c>
       <c r="I95" s="12"/>
@@ -28357,23 +28409,23 @@
         <v>0.98632175930844102</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" ref="D96:H96" si="45">1-D95</f>
+        <f t="shared" ref="D96:H96" si="41">1-D95</f>
         <v>0.98591611763563136</v>
       </c>
       <c r="E96" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>0.98301441322890215</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>0.9626499310251655</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>0.97429418760270636</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>0.98321553697036146</v>
       </c>
       <c r="I96" s="12"/>
@@ -28501,15 +28553,15 @@
         <v>5.18</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" ref="D102:F102" si="46">$K$88</f>
+        <f t="shared" ref="D102:F102" si="42">$K$88</f>
         <v>5.18</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>5.18</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>5.18</v>
       </c>
       <c r="G102" s="2">
@@ -28533,11 +28585,11 @@
         <v>1</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ref="C103:E103" si="47">D102/$K$101</f>
+        <f t="shared" ref="D103:E103" si="43">D102/$K$101</f>
         <v>1</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="F103" s="2">
@@ -28545,11 +28597,11 @@
         <v>1</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" ref="G103:H103" si="48">G102/$K$101</f>
+        <f t="shared" ref="G103:H103" si="44">G102/$K$101</f>
         <v>0.93088803088803096</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>0.76177606177606183</v>
       </c>
       <c r="I103" s="12"/>
@@ -28565,23 +28617,23 @@
         <v>0.995</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" ref="D104:H104" si="49">(D101+D103)/(1+D103)</f>
+        <f t="shared" ref="D104:H104" si="45">(D101+D103)/(1+D103)</f>
         <v>0.995</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0.99</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0.96374725054988997</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0.95742932281393822</v>
       </c>
       <c r="I104" s="12"/>
@@ -28597,23 +28649,23 @@
         <v>0.995</v>
       </c>
       <c r="D105" s="4">
-        <f t="shared" ref="D105:H105" si="50">D100*D104</f>
+        <f t="shared" ref="D105:H105" si="46">D100*D104</f>
         <v>0.995</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0.99</v>
       </c>
       <c r="F105" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0.96374725054988997</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0.95742932281393822</v>
       </c>
       <c r="I105" s="12"/>
@@ -28629,23 +28681,23 @@
         <v>1</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" ref="D106:H106" si="51">D100</f>
+        <f t="shared" ref="D106:H106" si="47">D100</f>
         <v>1</v>
       </c>
       <c r="E106" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H106" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I106" s="12"/>
@@ -28661,23 +28713,23 @@
         <v>0.995</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" ref="D107:H107" si="52">D105</f>
+        <f t="shared" ref="D107:H107" si="48">D105</f>
         <v>0.995</v>
       </c>
       <c r="E107" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>0.99</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>0.96374725054988997</v>
       </c>
       <c r="H107" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>0.95742932281393822</v>
       </c>
       <c r="I107" s="12"/>
@@ -28786,23 +28838,23 @@
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="D115" s="30">
-        <f t="shared" ref="D115:H115" si="53">D5</f>
+        <f t="shared" ref="D115:H115" si="49">D5</f>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="E115" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="F115" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="G115" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="H115" s="35">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>4.9099999999999998E-2</v>
       </c>
       <c r="I115" s="33"/>
@@ -28824,27 +28876,27 @@
       <c r="B116" s="29"/>
       <c r="C116" s="30">
         <f>C14</f>
-        <v>5.7980999999999998E-2</v>
+        <v>5.0911999999999999E-2</v>
       </c>
       <c r="D116" s="30">
-        <f t="shared" ref="D116:H116" si="54">D14</f>
-        <v>5.9737999999999999E-2</v>
+        <f t="shared" ref="D116:H116" si="50">D14</f>
+        <v>5.2503000000000001E-2</v>
       </c>
       <c r="E116" s="30">
-        <f t="shared" si="54"/>
-        <v>7.2037000000000004E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.8866999999999996E-2</v>
       </c>
       <c r="F116" s="30">
-        <f t="shared" si="54"/>
-        <v>6.1495000000000001E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.4094000000000003E-2</v>
       </c>
       <c r="G116" s="30">
-        <f t="shared" si="54"/>
-        <v>4.9195999999999997E-2</v>
+        <f t="shared" si="50"/>
+        <v>4.4547999999999997E-2</v>
       </c>
       <c r="H116" s="35">
-        <f t="shared" si="54"/>
-        <v>4.3924999999999999E-2</v>
+        <f t="shared" si="50"/>
+        <v>4.1366E-2</v>
       </c>
       <c r="I116" s="33"/>
       <c r="J116" s="36"/>
@@ -28866,27 +28918,27 @@
       <c r="B117" s="29"/>
       <c r="C117" s="30">
         <f>C20</f>
-        <v>8.7849999999999998E-2</v>
+        <v>4.2066000000000006E-2</v>
       </c>
       <c r="D117" s="30">
-        <f t="shared" ref="D117:H117" si="55">D20</f>
-        <v>9.3120999999999995E-2</v>
+        <f t="shared" ref="D117:H117" si="51">D20</f>
+        <v>4.3092000000000005E-2</v>
       </c>
       <c r="E117" s="30">
-        <f t="shared" si="55"/>
-        <v>0.101906</v>
+        <f t="shared" si="51"/>
+        <v>4.7196000000000002E-2</v>
       </c>
       <c r="F117" s="30">
-        <f t="shared" si="55"/>
-        <v>9.487799999999999E-2</v>
+        <f t="shared" si="51"/>
+        <v>4.4117999999999997E-2</v>
       </c>
       <c r="G117" s="30">
-        <f t="shared" si="55"/>
-        <v>8.2579E-2</v>
+        <f t="shared" si="51"/>
+        <v>3.8988000000000002E-2</v>
       </c>
       <c r="H117" s="35">
-        <f t="shared" si="55"/>
-        <v>7.3793999999999998E-2</v>
+        <f t="shared" si="51"/>
+        <v>3.5910000000000004E-2</v>
       </c>
       <c r="I117" s="33"/>
       <c r="J117" s="36"/>
@@ -28911,23 +28963,23 @@
         <v>2.9781894359907914</v>
       </c>
       <c r="D118" s="30">
-        <f t="shared" ref="D118:H118" si="56">D68</f>
+        <f t="shared" ref="D118:H118" si="52">D68</f>
         <v>2.9793508785520859</v>
       </c>
       <c r="E118" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>2.9785323001528612</v>
       </c>
       <c r="F118" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>7.6688067870134606</v>
       </c>
       <c r="G118" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>6.2411552437022042</v>
       </c>
       <c r="H118" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>5.3191258962702959</v>
       </c>
       <c r="I118" s="33"/>
@@ -28953,23 +29005,23 @@
         <v>5.7567064873560607</v>
       </c>
       <c r="D119" s="30">
-        <f t="shared" ref="D119:H119" si="57">D77</f>
+        <f t="shared" ref="D119:H119" si="53">D77</f>
         <v>5.7650540193049897</v>
       </c>
       <c r="E119" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>5.7591707241960073</v>
       </c>
       <c r="F119" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>13.916724061333417</v>
       </c>
       <c r="G119" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>11.226050237957008</v>
       </c>
       <c r="H119" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>10.639966187438196</v>
       </c>
       <c r="I119" s="33"/>
@@ -28990,23 +29042,23 @@
         <v>0.98632175930844102</v>
       </c>
       <c r="D120" s="30">
-        <f t="shared" ref="D120:H120" si="58">D96</f>
+        <f t="shared" ref="D120:H120" si="54">D96</f>
         <v>0.98591611763563136</v>
       </c>
       <c r="E120" s="30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0.98301441322890215</v>
       </c>
       <c r="F120" s="30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0.9626499310251655</v>
       </c>
       <c r="G120" s="30">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0.97429418760270636</v>
       </c>
       <c r="H120" s="35">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0.98321553697036146</v>
       </c>
       <c r="I120" s="33"/>
@@ -29027,23 +29079,23 @@
         <v>1</v>
       </c>
       <c r="D121" s="30">
-        <f t="shared" ref="D121:H121" si="59">D106</f>
+        <f t="shared" ref="D121:H121" si="55">D106</f>
         <v>1</v>
       </c>
       <c r="E121" s="30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="F121" s="30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="G121" s="30">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="H121" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I121" s="33"/>
@@ -29064,23 +29116,23 @@
         <v>0.995</v>
       </c>
       <c r="D122" s="30">
-        <f t="shared" ref="D122:H122" si="60">D107</f>
+        <f t="shared" ref="D122:H122" si="56">D107</f>
         <v>0.995</v>
       </c>
       <c r="E122" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0.99</v>
       </c>
       <c r="F122" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="G122" s="30">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0.96374725054988997</v>
       </c>
       <c r="H122" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0.95742932281393822</v>
       </c>
       <c r="I122" s="33"/>
@@ -29098,27 +29150,27 @@
       <c r="B123" s="36"/>
       <c r="C123" s="40">
         <f>(C115*$K$116)+(C116*C118*C121*$K$117*$K$115)+(C117*C119*C122*$K$118*C120)</f>
-        <v>0.22255547022759539</v>
+        <v>0.16729828642259725</v>
       </c>
       <c r="D123" s="40">
-        <f t="shared" ref="D123:H123" si="61">(D115*$K$116)+(D116*D118*D121*$K$117*$K$115)+(D117*D119*D122*$K$118*D120)</f>
-        <v>0.22997248317955471</v>
+        <f t="shared" ref="D123:H123" si="57">(D115*$K$116)+(D116*D118*D121*$K$117*$K$115)+(D117*D119*D122*$K$118*D120)</f>
+        <v>0.17043821741392973</v>
       </c>
       <c r="E123" s="40">
-        <f t="shared" si="61"/>
-        <v>0.25577094376118237</v>
+        <f t="shared" si="57"/>
+        <v>0.18146006698578215</v>
       </c>
       <c r="F123" s="40">
-        <f t="shared" si="61"/>
-        <v>0.52597514952174806</v>
+        <f t="shared" si="57"/>
+        <v>0.38261089355009964</v>
       </c>
       <c r="G123" s="40">
-        <f t="shared" si="61"/>
-        <v>0.3690289867399662</v>
+        <f t="shared" si="57"/>
+        <v>0.27604546522193746</v>
       </c>
       <c r="H123" s="40">
-        <f t="shared" si="61"/>
-        <v>0.30470823803421682</v>
+        <f t="shared" si="57"/>
+        <v>0.23430505025116416</v>
       </c>
       <c r="I123" s="33"/>
       <c r="J123" s="33"/>
@@ -29209,23 +29261,23 @@
         <v>0</v>
       </c>
       <c r="D127" s="45">
-        <f t="shared" ref="D127:H130" si="62">D$123*$B127</f>
+        <f t="shared" ref="D127:H130" si="58">D$123*$B127</f>
         <v>0</v>
       </c>
       <c r="E127" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F127" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="G127" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="H127" s="46">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="I127" s="33"/>
@@ -29244,28 +29296,28 @@
         <v>2</v>
       </c>
       <c r="C128" s="47">
-        <f t="shared" ref="C128:C130" si="63">C$123*$B128</f>
-        <v>0.44511094045519078</v>
+        <f t="shared" ref="C128:C130" si="59">C$123*$B128</f>
+        <v>0.33459657284519451</v>
       </c>
       <c r="D128" s="38">
-        <f t="shared" si="62"/>
-        <v>0.45994496635910942</v>
+        <f t="shared" si="58"/>
+        <v>0.34087643482785945</v>
       </c>
       <c r="E128" s="38">
-        <f t="shared" si="62"/>
-        <v>0.51154188752236474</v>
+        <f t="shared" si="58"/>
+        <v>0.36292013397156431</v>
       </c>
       <c r="F128" s="38">
-        <f t="shared" si="62"/>
-        <v>1.0519502990434961</v>
+        <f t="shared" si="58"/>
+        <v>0.76522178710019928</v>
       </c>
       <c r="G128" s="38">
-        <f t="shared" si="62"/>
-        <v>0.73805797347993241</v>
+        <f t="shared" si="58"/>
+        <v>0.55209093044387492</v>
       </c>
       <c r="H128" s="48">
-        <f t="shared" si="62"/>
-        <v>0.60941647606843363</v>
+        <f t="shared" si="58"/>
+        <v>0.46861010050232832</v>
       </c>
       <c r="I128" s="33"/>
       <c r="J128" s="33"/>
@@ -29283,28 +29335,28 @@
         <v>4</v>
       </c>
       <c r="C129" s="47">
-        <f t="shared" si="63"/>
-        <v>0.89022188091038157</v>
+        <f t="shared" si="59"/>
+        <v>0.66919314569038901</v>
       </c>
       <c r="D129" s="38">
-        <f t="shared" si="62"/>
-        <v>0.91988993271821884</v>
+        <f t="shared" si="58"/>
+        <v>0.68175286965571891</v>
       </c>
       <c r="E129" s="38">
-        <f t="shared" si="62"/>
-        <v>1.0230837750447295</v>
+        <f t="shared" si="58"/>
+        <v>0.72584026794312861</v>
       </c>
       <c r="F129" s="38">
-        <f t="shared" si="62"/>
-        <v>2.1039005980869923</v>
+        <f t="shared" si="58"/>
+        <v>1.5304435742003986</v>
       </c>
       <c r="G129" s="38">
-        <f t="shared" si="62"/>
-        <v>1.4761159469598648</v>
+        <f t="shared" si="58"/>
+        <v>1.1041818608877498</v>
       </c>
       <c r="H129" s="48">
-        <f t="shared" si="62"/>
-        <v>1.2188329521368673</v>
+        <f t="shared" si="58"/>
+        <v>0.93722020100465664</v>
       </c>
       <c r="I129" s="33"/>
       <c r="J129" s="33"/>
@@ -29322,28 +29374,28 @@
         <v>6</v>
       </c>
       <c r="C130" s="49">
-        <f t="shared" si="63"/>
-        <v>1.3353328213655724</v>
+        <f t="shared" si="59"/>
+        <v>1.0037897185355835</v>
       </c>
       <c r="D130" s="50">
         <f>D$123*$B130</f>
-        <v>1.3798348990773284</v>
+        <v>1.0226293044835784</v>
       </c>
       <c r="E130" s="50">
-        <f t="shared" si="62"/>
-        <v>1.5346256625670942</v>
+        <f t="shared" si="58"/>
+        <v>1.0887604019146928</v>
       </c>
       <c r="F130" s="50">
-        <f t="shared" si="62"/>
-        <v>3.1558508971304882</v>
+        <f t="shared" si="58"/>
+        <v>2.295665361300598</v>
       </c>
       <c r="G130" s="50">
         <f>G$123*$B130</f>
-        <v>2.214173920439797</v>
+        <v>1.6562727913316246</v>
       </c>
       <c r="H130" s="51">
-        <f t="shared" si="62"/>
-        <v>1.828249428205301</v>
+        <f t="shared" si="58"/>
+        <v>1.4058303015069851</v>
       </c>
       <c r="I130" s="33"/>
       <c r="J130" s="33"/>

--- a/Тамбов/Глава 2. Excel (Тамбов).xlsx
+++ b/Тамбов/Глава 2. Excel (Тамбов).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tambov/Documents/МАИ/Аэродинамика/6 семестр/Курсовая работа/AeroKursach/Тамбов/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151B2555-7111-5943-97C4-9299A66F769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0334551-D178-874C-96B4-6C60B4BC6370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{507D8B9C-88C0-8D47-895B-9C70E3C93069}"/>
   </bookViews>
@@ -26284,7 +26284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7198E69-7FB2-674D-9622-2EA6BECDD97C}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="134" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
